--- a/data/trans_orig/P6714-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P6714-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1D9DE5F3-3FC1-4563-B556-2894026A5AC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A12598A0-D0D8-4571-ADC8-1DDC96BE62C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{840867DF-B381-4D69-8E3F-D6D6FBA8E0B2}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{CF9F4A46-F7D0-428C-BEBE-FC638758A499}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="772" uniqueCount="516">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="772" uniqueCount="510">
   <si>
     <t>Población según si se sienten comprometidos con su profesión en 2012 (Tasa respuesta: 33,87%)</t>
   </si>
@@ -78,7 +78,7 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>7,67%</t>
+    <t>6,69%</t>
   </si>
   <si>
     <t>0%</t>
@@ -90,7 +90,7 @@
     <t>0,96%</t>
   </si>
   <si>
-    <t>4,84%</t>
+    <t>4,33%</t>
   </si>
   <si>
     <t>Solo alguna vez</t>
@@ -102,13 +102,13 @@
     <t>4,3%</t>
   </si>
   <si>
-    <t>21,77%</t>
+    <t>21,88%</t>
   </si>
   <si>
     <t>1,41%</t>
   </si>
   <si>
-    <t>7,8%</t>
+    <t>7,24%</t>
   </si>
   <si>
     <t>Algunas veces</t>
@@ -117,1456 +117,1438 @@
     <t>7,03%</t>
   </si>
   <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>16,93%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>20,84%</t>
+  </si>
+  <si>
+    <t>5,99%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>13,02%</t>
+  </si>
+  <si>
+    <t>Muchas veces</t>
+  </si>
+  <si>
+    <t>27,88%</t>
+  </si>
+  <si>
+    <t>16,32%</t>
+  </si>
+  <si>
+    <t>40,75%</t>
+  </si>
+  <si>
+    <t>41,0%</t>
+  </si>
+  <si>
+    <t>19,51%</t>
+  </si>
+  <si>
+    <t>62,45%</t>
+  </si>
+  <si>
+    <t>32,18%</t>
+  </si>
+  <si>
+    <t>21,92%</t>
+  </si>
+  <si>
+    <t>43,69%</t>
+  </si>
+  <si>
+    <t>Siempre</t>
+  </si>
+  <si>
+    <t>63,65%</t>
+  </si>
+  <si>
+    <t>49,7%</t>
+  </si>
+  <si>
+    <t>75,61%</t>
+  </si>
+  <si>
+    <t>50,84%</t>
+  </si>
+  <si>
+    <t>29,45%</t>
+  </si>
+  <si>
+    <t>73,41%</t>
+  </si>
+  <si>
+    <t>59,46%</t>
+  </si>
+  <si>
+    <t>46,29%</t>
+  </si>
+  <si>
+    <t>69,71%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2/10</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>5,6%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>6,2%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>9,23%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>11,14%</t>
+  </si>
+  <si>
+    <t>7,44%</t>
+  </si>
+  <si>
+    <t>16,07%</t>
+  </si>
+  <si>
+    <t>14,67%</t>
+  </si>
+  <si>
+    <t>9,49%</t>
+  </si>
+  <si>
+    <t>21,69%</t>
+  </si>
+  <si>
+    <t>12,5%</t>
+  </si>
+  <si>
+    <t>9,34%</t>
+  </si>
+  <si>
+    <t>16,44%</t>
+  </si>
+  <si>
+    <t>25,2%</t>
+  </si>
+  <si>
+    <t>19,6%</t>
+  </si>
+  <si>
+    <t>31,67%</t>
+  </si>
+  <si>
+    <t>27,15%</t>
+  </si>
+  <si>
+    <t>20,02%</t>
+  </si>
+  <si>
+    <t>35,35%</t>
+  </si>
+  <si>
+    <t>25,95%</t>
+  </si>
+  <si>
+    <t>21,28%</t>
+  </si>
+  <si>
+    <t>30,46%</t>
+  </si>
+  <si>
+    <t>59,05%</t>
+  </si>
+  <si>
+    <t>52,61%</t>
+  </si>
+  <si>
+    <t>66,21%</t>
+  </si>
+  <si>
+    <t>52,94%</t>
+  </si>
+  <si>
+    <t>44,15%</t>
+  </si>
+  <si>
+    <t>62,19%</t>
+  </si>
+  <si>
+    <t>56,7%</t>
+  </si>
+  <si>
+    <t>51,09%</t>
+  </si>
+  <si>
+    <t>62,0%</t>
+  </si>
+  <si>
+    <t>10/50</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>7,09%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>4,79%</t>
+  </si>
+  <si>
+    <t>14,28%</t>
+  </si>
+  <si>
+    <t>18,45%</t>
+  </si>
+  <si>
+    <t>19,37%</t>
+  </si>
+  <si>
+    <t>24,75%</t>
+  </si>
+  <si>
+    <t>16,3%</t>
+  </si>
+  <si>
+    <t>13,52%</t>
+  </si>
+  <si>
+    <t>19,28%</t>
+  </si>
+  <si>
+    <t>21,51%</t>
+  </si>
+  <si>
+    <t>17,55%</t>
+  </si>
+  <si>
+    <t>26,03%</t>
+  </si>
+  <si>
+    <t>23,83%</t>
+  </si>
+  <si>
+    <t>18,83%</t>
+  </si>
+  <si>
+    <t>30,01%</t>
+  </si>
+  <si>
+    <t>22,43%</t>
+  </si>
+  <si>
+    <t>25,97%</t>
+  </si>
+  <si>
+    <t>60,06%</t>
+  </si>
+  <si>
+    <t>55,02%</t>
+  </si>
+  <si>
+    <t>65,11%</t>
+  </si>
+  <si>
+    <t>51,91%</t>
+  </si>
+  <si>
+    <t>45,25%</t>
+  </si>
+  <si>
+    <t>58,22%</t>
+  </si>
+  <si>
+    <t>56,83%</t>
+  </si>
+  <si>
+    <t>52,76%</t>
+  </si>
+  <si>
+    <t>60,74%</t>
+  </si>
+  <si>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>4,89%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>8,97%</t>
+  </si>
+  <si>
+    <t>7,72%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>13,28%</t>
+  </si>
+  <si>
+    <t>6,27%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>8,96%</t>
+  </si>
+  <si>
+    <t>12,8%</t>
+  </si>
+  <si>
+    <t>9,32%</t>
+  </si>
+  <si>
+    <t>17,23%</t>
+  </si>
+  <si>
+    <t>14,74%</t>
+  </si>
+  <si>
+    <t>9,53%</t>
+  </si>
+  <si>
+    <t>21,15%</t>
+  </si>
+  <si>
+    <t>13,57%</t>
+  </si>
+  <si>
+    <t>10,86%</t>
+  </si>
+  <si>
+    <t>17,07%</t>
+  </si>
+  <si>
+    <t>16,51%</t>
+  </si>
+  <si>
+    <t>12,46%</t>
+  </si>
+  <si>
+    <t>21,1%</t>
+  </si>
+  <si>
+    <t>24,12%</t>
+  </si>
+  <si>
+    <t>18,23%</t>
+  </si>
+  <si>
+    <t>30,89%</t>
+  </si>
+  <si>
+    <t>19,56%</t>
+  </si>
+  <si>
+    <t>16,19%</t>
+  </si>
+  <si>
+    <t>23,29%</t>
+  </si>
+  <si>
+    <t>64,1%</t>
+  </si>
+  <si>
+    <t>58,4%</t>
+  </si>
+  <si>
+    <t>69,85%</t>
+  </si>
+  <si>
+    <t>51,26%</t>
+  </si>
+  <si>
+    <t>43,24%</t>
+  </si>
+  <si>
+    <t>58,23%</t>
+  </si>
+  <si>
+    <t>58,95%</t>
+  </si>
+  <si>
+    <t>54,36%</t>
+  </si>
+  <si>
+    <t>63,25%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>4,71%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>6,67%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>5,11%</t>
+  </si>
+  <si>
+    <t>15,96%</t>
+  </si>
+  <si>
+    <t>12,54%</t>
+  </si>
+  <si>
+    <t>19,73%</t>
+  </si>
+  <si>
+    <t>16,64%</t>
+  </si>
+  <si>
+    <t>12,78%</t>
+  </si>
+  <si>
+    <t>22,31%</t>
+  </si>
+  <si>
+    <t>16,24%</t>
+  </si>
+  <si>
+    <t>13,48%</t>
+  </si>
+  <si>
+    <t>19,09%</t>
+  </si>
+  <si>
+    <t>26,8%</t>
+  </si>
+  <si>
+    <t>22,69%</t>
+  </si>
+  <si>
+    <t>31,56%</t>
+  </si>
+  <si>
+    <t>25,38%</t>
+  </si>
+  <si>
+    <t>20,3%</t>
+  </si>
+  <si>
+    <t>30,42%</t>
+  </si>
+  <si>
+    <t>26,21%</t>
+  </si>
+  <si>
+    <t>23,22%</t>
+  </si>
+  <si>
+    <t>29,85%</t>
+  </si>
+  <si>
+    <t>51,47%</t>
+  </si>
+  <si>
+    <t>46,02%</t>
+  </si>
+  <si>
+    <t>56,06%</t>
+  </si>
+  <si>
+    <t>52,86%</t>
+  </si>
+  <si>
+    <t>46,73%</t>
+  </si>
+  <si>
+    <t>58,72%</t>
+  </si>
+  <si>
+    <t>52,05%</t>
+  </si>
+  <si>
+    <t>48,01%</t>
+  </si>
+  <si>
+    <t>55,75%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>4,72%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>5,76%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>13,7%</t>
+  </si>
+  <si>
+    <t>11,87%</t>
+  </si>
+  <si>
+    <t>15,68%</t>
+  </si>
+  <si>
+    <t>16,37%</t>
+  </si>
+  <si>
+    <t>14,16%</t>
+  </si>
+  <si>
+    <t>19,15%</t>
+  </si>
+  <si>
+    <t>14,76%</t>
+  </si>
+  <si>
+    <t>13,37%</t>
+  </si>
+  <si>
+    <t>22,74%</t>
+  </si>
+  <si>
+    <t>20,4%</t>
+  </si>
+  <si>
+    <t>25,08%</t>
+  </si>
+  <si>
+    <t>25,32%</t>
+  </si>
+  <si>
+    <t>22,29%</t>
+  </si>
+  <si>
+    <t>28,37%</t>
+  </si>
+  <si>
+    <t>23,78%</t>
+  </si>
+  <si>
+    <t>21,98%</t>
+  </si>
+  <si>
+    <t>25,64%</t>
+  </si>
+  <si>
+    <t>58,41%</t>
+  </si>
+  <si>
+    <t>55,63%</t>
+  </si>
+  <si>
+    <t>61,22%</t>
+  </si>
+  <si>
+    <t>52,18%</t>
+  </si>
+  <si>
+    <t>48,57%</t>
+  </si>
+  <si>
+    <t>55,41%</t>
+  </si>
+  <si>
+    <t>55,92%</t>
+  </si>
+  <si>
+    <t>53,76%</t>
+  </si>
+  <si>
+    <t>58,15%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si se sienten comprometidos con su profesión en 2015 (Tasa respuesta: 35,56%)</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>19,85%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>8,86%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>12,72%</t>
+  </si>
+  <si>
+    <t>6,17%</t>
+  </si>
+  <si>
+    <t>21,07%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>10,29%</t>
+  </si>
+  <si>
+    <t>13,6%</t>
+  </si>
+  <si>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>25,28%</t>
+  </si>
+  <si>
+    <t>24,91%</t>
+  </si>
+  <si>
+    <t>12,05%</t>
+  </si>
+  <si>
+    <t>42,85%</t>
+  </si>
+  <si>
+    <t>18,18%</t>
+  </si>
+  <si>
+    <t>10,42%</t>
+  </si>
+  <si>
+    <t>27,9%</t>
+  </si>
+  <si>
+    <t>33,8%</t>
+  </si>
+  <si>
+    <t>20,36%</t>
+  </si>
+  <si>
+    <t>48,26%</t>
+  </si>
+  <si>
+    <t>29,7%</t>
+  </si>
+  <si>
+    <t>15,52%</t>
+  </si>
+  <si>
+    <t>46,53%</t>
+  </si>
+  <si>
+    <t>32,14%</t>
+  </si>
+  <si>
+    <t>22,46%</t>
+  </si>
+  <si>
+    <t>43,9%</t>
+  </si>
+  <si>
+    <t>47,96%</t>
+  </si>
+  <si>
+    <t>33,52%</t>
+  </si>
+  <si>
+    <t>64,11%</t>
+  </si>
+  <si>
+    <t>35,98%</t>
+  </si>
+  <si>
+    <t>20,61%</t>
+  </si>
+  <si>
+    <t>54,98%</t>
+  </si>
+  <si>
+    <t>43,12%</t>
+  </si>
+  <si>
+    <t>32,67%</t>
+  </si>
+  <si>
+    <t>54,66%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>6,16%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>6,96%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>5,02%</t>
+  </si>
+  <si>
+    <t>8,7%</t>
+  </si>
+  <si>
+    <t>5,42%</t>
+  </si>
+  <si>
+    <t>13,39%</t>
+  </si>
+  <si>
+    <t>7,26%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>12,3%</t>
+  </si>
+  <si>
+    <t>8,11%</t>
+  </si>
+  <si>
+    <t>5,59%</t>
+  </si>
+  <si>
+    <t>11,66%</t>
+  </si>
+  <si>
+    <t>16,66%</t>
+  </si>
+  <si>
+    <t>11,73%</t>
+  </si>
+  <si>
+    <t>22,83%</t>
+  </si>
+  <si>
+    <t>17,79%</t>
+  </si>
+  <si>
+    <t>24,99%</t>
+  </si>
+  <si>
+    <t>17,12%</t>
+  </si>
+  <si>
+    <t>13,63%</t>
+  </si>
+  <si>
+    <t>21,41%</t>
+  </si>
+  <si>
+    <t>30,31%</t>
+  </si>
+  <si>
+    <t>24,24%</t>
+  </si>
+  <si>
+    <t>37,04%</t>
+  </si>
+  <si>
+    <t>35,65%</t>
+  </si>
+  <si>
+    <t>28,04%</t>
+  </si>
+  <si>
+    <t>44,31%</t>
+  </si>
+  <si>
+    <t>32,49%</t>
+  </si>
+  <si>
+    <t>27,79%</t>
+  </si>
+  <si>
+    <t>37,95%</t>
+  </si>
+  <si>
+    <t>41,56%</t>
+  </si>
+  <si>
+    <t>34,63%</t>
+  </si>
+  <si>
+    <t>48,56%</t>
+  </si>
+  <si>
+    <t>36,85%</t>
+  </si>
+  <si>
+    <t>29,64%</t>
+  </si>
+  <si>
+    <t>45,57%</t>
+  </si>
+  <si>
+    <t>39,64%</t>
+  </si>
+  <si>
+    <t>34,08%</t>
+  </si>
+  <si>
+    <t>44,63%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>4,94%</t>
+  </si>
+  <si>
     <t>1,9%</t>
   </si>
   <si>
-    <t>16,06%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>19,63%</t>
-  </si>
-  <si>
-    <t>5,99%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>12,25%</t>
-  </si>
-  <si>
-    <t>Muchas veces</t>
-  </si>
-  <si>
-    <t>27,88%</t>
-  </si>
-  <si>
-    <t>17,76%</t>
-  </si>
-  <si>
-    <t>41,36%</t>
-  </si>
-  <si>
-    <t>41,0%</t>
-  </si>
-  <si>
-    <t>21,63%</t>
-  </si>
-  <si>
-    <t>61,14%</t>
-  </si>
-  <si>
-    <t>32,18%</t>
-  </si>
-  <si>
-    <t>21,91%</t>
-  </si>
-  <si>
-    <t>42,91%</t>
-  </si>
-  <si>
-    <t>Siempre</t>
-  </si>
-  <si>
-    <t>63,65%</t>
-  </si>
-  <si>
-    <t>51,37%</t>
-  </si>
-  <si>
-    <t>75,38%</t>
-  </si>
-  <si>
-    <t>50,84%</t>
-  </si>
-  <si>
-    <t>31,26%</t>
-  </si>
-  <si>
-    <t>72,79%</t>
-  </si>
-  <si>
-    <t>59,46%</t>
-  </si>
-  <si>
-    <t>47,38%</t>
-  </si>
-  <si>
-    <t>70,28%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>5,1%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>5,53%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>6,09%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>8,95%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>11,14%</t>
-  </si>
-  <si>
-    <t>7,09%</t>
-  </si>
-  <si>
-    <t>16,43%</t>
-  </si>
-  <si>
-    <t>14,67%</t>
-  </si>
-  <si>
-    <t>9,63%</t>
-  </si>
-  <si>
-    <t>22,15%</t>
-  </si>
-  <si>
-    <t>12,5%</t>
-  </si>
-  <si>
-    <t>9,27%</t>
-  </si>
-  <si>
-    <t>16,68%</t>
-  </si>
-  <si>
-    <t>25,2%</t>
-  </si>
-  <si>
-    <t>19,56%</t>
-  </si>
-  <si>
-    <t>31,97%</t>
-  </si>
-  <si>
-    <t>27,15%</t>
-  </si>
-  <si>
-    <t>19,97%</t>
-  </si>
-  <si>
-    <t>36,53%</t>
-  </si>
-  <si>
-    <t>25,95%</t>
-  </si>
-  <si>
-    <t>30,62%</t>
-  </si>
-  <si>
-    <t>59,05%</t>
-  </si>
-  <si>
-    <t>52,24%</t>
-  </si>
-  <si>
-    <t>66,33%</t>
-  </si>
-  <si>
-    <t>52,94%</t>
-  </si>
-  <si>
-    <t>43,0%</t>
-  </si>
-  <si>
-    <t>61,22%</t>
-  </si>
-  <si>
-    <t>56,7%</t>
-  </si>
-  <si>
-    <t>50,99%</t>
-  </si>
-  <si>
-    <t>61,75%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>5,57%</t>
+  </si>
+  <si>
+    <t>7,2%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>11,75%</t>
+  </si>
+  <si>
+    <t>4,92%</t>
+  </si>
+  <si>
+    <t>6,97%</t>
+  </si>
+  <si>
+    <t>19,52%</t>
+  </si>
+  <si>
+    <t>24,21%</t>
+  </si>
+  <si>
+    <t>16,6%</t>
+  </si>
+  <si>
+    <t>11,84%</t>
+  </si>
+  <si>
+    <t>18,35%</t>
+  </si>
+  <si>
+    <t>15,65%</t>
+  </si>
+  <si>
+    <t>21,27%</t>
+  </si>
+  <si>
+    <t>27,54%</t>
+  </si>
+  <si>
+    <t>23,6%</t>
+  </si>
+  <si>
+    <t>32,33%</t>
+  </si>
+  <si>
+    <t>29,42%</t>
+  </si>
+  <si>
+    <t>24,54%</t>
+  </si>
+  <si>
+    <t>35,19%</t>
+  </si>
+  <si>
+    <t>28,29%</t>
+  </si>
+  <si>
+    <t>24,9%</t>
+  </si>
+  <si>
+    <t>31,66%</t>
+  </si>
+  <si>
+    <t>47,78%</t>
+  </si>
+  <si>
+    <t>42,49%</t>
+  </si>
+  <si>
+    <t>52,69%</t>
+  </si>
+  <si>
+    <t>44,65%</t>
+  </si>
+  <si>
+    <t>38,88%</t>
+  </si>
+  <si>
+    <t>50,91%</t>
+  </si>
+  <si>
+    <t>46,54%</t>
+  </si>
+  <si>
+    <t>42,36%</t>
+  </si>
+  <si>
+    <t>50,41%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>5,18%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>8,41%</t>
+  </si>
+  <si>
+    <t>5,73%</t>
+  </si>
+  <si>
+    <t>12,07%</t>
+  </si>
+  <si>
+    <t>10,33%</t>
+  </si>
+  <si>
+    <t>7,14%</t>
+  </si>
+  <si>
+    <t>14,64%</t>
+  </si>
+  <si>
+    <t>7,01%</t>
+  </si>
+  <si>
+    <t>11,99%</t>
+  </si>
+  <si>
+    <t>31,06%</t>
+  </si>
+  <si>
+    <t>26,31%</t>
+  </si>
+  <si>
+    <t>35,96%</t>
+  </si>
+  <si>
+    <t>24,5%</t>
+  </si>
+  <si>
+    <t>29,63%</t>
+  </si>
+  <si>
+    <t>28,27%</t>
+  </si>
+  <si>
+    <t>24,49%</t>
+  </si>
+  <si>
+    <t>22,73%</t>
+  </si>
+  <si>
+    <t>18,28%</t>
+  </si>
+  <si>
+    <t>27,95%</t>
+  </si>
+  <si>
+    <t>27,81%</t>
+  </si>
+  <si>
+    <t>22,26%</t>
+  </si>
+  <si>
+    <t>32,81%</t>
+  </si>
+  <si>
+    <t>28,83%</t>
+  </si>
+  <si>
+    <t>33,9%</t>
+  </si>
+  <si>
+    <t>29,38%</t>
+  </si>
+  <si>
+    <t>39,18%</t>
+  </si>
+  <si>
+    <t>34,9%</t>
+  </si>
+  <si>
+    <t>29,3%</t>
+  </si>
+  <si>
+    <t>41,25%</t>
+  </si>
+  <si>
+    <t>34,33%</t>
+  </si>
+  <si>
+    <t>30,17%</t>
+  </si>
+  <si>
+    <t>38,06%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>5,89%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>7,5%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>5,25%</t>
+  </si>
+  <si>
+    <t>13,26%</t>
+  </si>
+  <si>
+    <t>10,04%</t>
+  </si>
+  <si>
+    <t>12,62%</t>
+  </si>
+  <si>
+    <t>9,33%</t>
+  </si>
+  <si>
+    <t>16,85%</t>
+  </si>
+  <si>
+    <t>12,98%</t>
+  </si>
+  <si>
+    <t>10,72%</t>
+  </si>
+  <si>
+    <t>15,7%</t>
+  </si>
+  <si>
+    <t>26,41%</t>
+  </si>
+  <si>
+    <t>31,22%</t>
+  </si>
+  <si>
+    <t>24,43%</t>
+  </si>
+  <si>
+    <t>20,04%</t>
+  </si>
+  <si>
+    <t>29,96%</t>
+  </si>
+  <si>
+    <t>25,52%</t>
+  </si>
+  <si>
+    <t>22,01%</t>
+  </si>
+  <si>
+    <t>28,85%</t>
+  </si>
+  <si>
+    <t>54,72%</t>
+  </si>
+  <si>
+    <t>49,24%</t>
+  </si>
+  <si>
+    <t>59,41%</t>
+  </si>
+  <si>
+    <t>55,16%</t>
+  </si>
+  <si>
+    <t>49,51%</t>
+  </si>
+  <si>
+    <t>60,67%</t>
+  </si>
+  <si>
+    <t>54,92%</t>
+  </si>
+  <si>
+    <t>51,24%</t>
+  </si>
+  <si>
+    <t>58,77%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
   </si>
   <si>
     <t>2,65%</t>
   </si>
   <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>6,89%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>4,79%</t>
-  </si>
-  <si>
-    <t>14,28%</t>
-  </si>
-  <si>
-    <t>11,0%</t>
-  </si>
-  <si>
-    <t>17,96%</t>
-  </si>
-  <si>
-    <t>19,37%</t>
-  </si>
-  <si>
-    <t>14,85%</t>
-  </si>
-  <si>
-    <t>24,38%</t>
-  </si>
-  <si>
-    <t>16,3%</t>
-  </si>
-  <si>
-    <t>13,5%</t>
-  </si>
-  <si>
-    <t>19,49%</t>
-  </si>
-  <si>
-    <t>21,51%</t>
-  </si>
-  <si>
-    <t>17,5%</t>
-  </si>
-  <si>
-    <t>26,27%</t>
-  </si>
-  <si>
-    <t>23,83%</t>
-  </si>
-  <si>
-    <t>18,46%</t>
-  </si>
-  <si>
-    <t>29,64%</t>
-  </si>
-  <si>
-    <t>22,43%</t>
-  </si>
-  <si>
-    <t>19,73%</t>
-  </si>
-  <si>
-    <t>26,14%</t>
-  </si>
-  <si>
-    <t>60,06%</t>
-  </si>
-  <si>
-    <t>54,67%</t>
-  </si>
-  <si>
-    <t>65,03%</t>
-  </si>
-  <si>
-    <t>51,91%</t>
-  </si>
-  <si>
-    <t>45,67%</t>
-  </si>
-  <si>
-    <t>58,07%</t>
-  </si>
-  <si>
-    <t>56,83%</t>
-  </si>
-  <si>
-    <t>53,03%</t>
-  </si>
-  <si>
-    <t>60,73%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>5,46%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>9,07%</t>
-  </si>
-  <si>
-    <t>7,72%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>13,4%</t>
-  </si>
-  <si>
-    <t>6,27%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>9,03%</t>
-  </si>
-  <si>
-    <t>12,8%</t>
-  </si>
-  <si>
-    <t>9,44%</t>
-  </si>
-  <si>
-    <t>17,12%</t>
-  </si>
-  <si>
-    <t>14,74%</t>
-  </si>
-  <si>
-    <t>10,23%</t>
-  </si>
-  <si>
-    <t>21,11%</t>
-  </si>
-  <si>
-    <t>13,57%</t>
-  </si>
-  <si>
-    <t>10,59%</t>
-  </si>
-  <si>
-    <t>16,66%</t>
-  </si>
-  <si>
-    <t>16,51%</t>
-  </si>
-  <si>
-    <t>12,16%</t>
-  </si>
-  <si>
-    <t>21,27%</t>
-  </si>
-  <si>
-    <t>24,12%</t>
-  </si>
-  <si>
-    <t>17,57%</t>
-  </si>
-  <si>
-    <t>30,1%</t>
-  </si>
-  <si>
-    <t>16,19%</t>
-  </si>
-  <si>
-    <t>23,48%</t>
-  </si>
-  <si>
-    <t>64,1%</t>
-  </si>
-  <si>
-    <t>58,51%</t>
-  </si>
-  <si>
-    <t>70,08%</t>
-  </si>
-  <si>
-    <t>51,26%</t>
-  </si>
-  <si>
-    <t>44,21%</t>
-  </si>
-  <si>
-    <t>58,97%</t>
-  </si>
-  <si>
-    <t>58,95%</t>
-  </si>
-  <si>
-    <t>54,47%</t>
-  </si>
-  <si>
-    <t>63,52%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>6,71%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>15,96%</t>
-  </si>
-  <si>
-    <t>12,47%</t>
-  </si>
-  <si>
-    <t>19,99%</t>
-  </si>
-  <si>
-    <t>16,64%</t>
-  </si>
-  <si>
-    <t>12,41%</t>
-  </si>
-  <si>
-    <t>21,57%</t>
-  </si>
-  <si>
-    <t>16,24%</t>
-  </si>
-  <si>
-    <t>13,69%</t>
-  </si>
-  <si>
-    <t>19,46%</t>
-  </si>
-  <si>
-    <t>26,8%</t>
-  </si>
-  <si>
-    <t>22,51%</t>
-  </si>
-  <si>
-    <t>31,49%</t>
-  </si>
-  <si>
-    <t>25,38%</t>
-  </si>
-  <si>
-    <t>20,84%</t>
-  </si>
-  <si>
-    <t>30,7%</t>
-  </si>
-  <si>
-    <t>26,21%</t>
-  </si>
-  <si>
-    <t>23,25%</t>
-  </si>
-  <si>
-    <t>29,71%</t>
-  </si>
-  <si>
-    <t>51,47%</t>
-  </si>
-  <si>
-    <t>46,32%</t>
-  </si>
-  <si>
-    <t>56,4%</t>
-  </si>
-  <si>
-    <t>52,86%</t>
-  </si>
-  <si>
-    <t>58,8%</t>
-  </si>
-  <si>
-    <t>52,05%</t>
-  </si>
-  <si>
-    <t>48,18%</t>
-  </si>
-  <si>
-    <t>55,61%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>5,9%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>4,76%</t>
-  </si>
-  <si>
-    <t>13,7%</t>
-  </si>
-  <si>
-    <t>11,9%</t>
-  </si>
-  <si>
-    <t>15,87%</t>
-  </si>
-  <si>
-    <t>16,37%</t>
-  </si>
-  <si>
-    <t>14,04%</t>
-  </si>
-  <si>
-    <t>19,27%</t>
-  </si>
-  <si>
-    <t>14,76%</t>
-  </si>
-  <si>
-    <t>13,39%</t>
-  </si>
-  <si>
-    <t>16,38%</t>
-  </si>
-  <si>
-    <t>22,74%</t>
-  </si>
-  <si>
-    <t>20,36%</t>
-  </si>
-  <si>
-    <t>25,32%</t>
-  </si>
-  <si>
-    <t>28,33%</t>
-  </si>
-  <si>
-    <t>23,78%</t>
-  </si>
-  <si>
-    <t>22,07%</t>
-  </si>
-  <si>
-    <t>25,55%</t>
-  </si>
-  <si>
-    <t>58,41%</t>
-  </si>
-  <si>
-    <t>55,7%</t>
-  </si>
-  <si>
-    <t>61,19%</t>
-  </si>
-  <si>
-    <t>52,18%</t>
-  </si>
-  <si>
-    <t>48,6%</t>
-  </si>
-  <si>
-    <t>55,32%</t>
-  </si>
-  <si>
-    <t>55,92%</t>
-  </si>
-  <si>
-    <t>53,84%</t>
-  </si>
-  <si>
-    <t>58,01%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si se sienten comprometidos con su profesión en 2015 (Tasa respuesta: 35,56%)</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>15,03%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>16,65%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>8,75%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>12,94%</t>
-  </si>
-  <si>
-    <t>6,17%</t>
-  </si>
-  <si>
-    <t>18,52%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>10,07%</t>
-  </si>
-  <si>
-    <t>13,6%</t>
-  </si>
-  <si>
-    <t>4,82%</t>
-  </si>
-  <si>
-    <t>26,11%</t>
-  </si>
-  <si>
-    <t>24,91%</t>
-  </si>
-  <si>
-    <t>12,22%</t>
-  </si>
-  <si>
-    <t>43,34%</t>
-  </si>
-  <si>
-    <t>18,18%</t>
-  </si>
-  <si>
-    <t>10,25%</t>
-  </si>
-  <si>
-    <t>28,35%</t>
-  </si>
-  <si>
-    <t>33,8%</t>
-  </si>
-  <si>
-    <t>21,46%</t>
-  </si>
-  <si>
-    <t>49,43%</t>
-  </si>
-  <si>
-    <t>29,7%</t>
-  </si>
-  <si>
-    <t>15,0%</t>
-  </si>
-  <si>
-    <t>47,0%</t>
-  </si>
-  <si>
-    <t>32,14%</t>
-  </si>
-  <si>
-    <t>21,82%</t>
-  </si>
-  <si>
-    <t>42,2%</t>
-  </si>
-  <si>
-    <t>47,96%</t>
-  </si>
-  <si>
-    <t>32,29%</t>
-  </si>
-  <si>
-    <t>61,95%</t>
-  </si>
-  <si>
-    <t>35,98%</t>
-  </si>
-  <si>
-    <t>20,76%</t>
-  </si>
-  <si>
-    <t>56,35%</t>
-  </si>
-  <si>
-    <t>43,12%</t>
-  </si>
-  <si>
-    <t>32,42%</t>
-  </si>
-  <si>
-    <t>54,24%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>6,05%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>7,31%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>5,25%</t>
-  </si>
-  <si>
-    <t>8,7%</t>
-  </si>
-  <si>
-    <t>5,2%</t>
-  </si>
-  <si>
-    <t>13,1%</t>
-  </si>
-  <si>
-    <t>7,26%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>12,05%</t>
-  </si>
-  <si>
-    <t>8,11%</t>
-  </si>
-  <si>
-    <t>5,83%</t>
-  </si>
-  <si>
-    <t>11,54%</t>
-  </si>
-  <si>
-    <t>11,98%</t>
-  </si>
-  <si>
-    <t>22,99%</t>
-  </si>
-  <si>
-    <t>17,79%</t>
-  </si>
-  <si>
-    <t>12,18%</t>
-  </si>
-  <si>
-    <t>25,15%</t>
-  </si>
-  <si>
-    <t>13,09%</t>
-  </si>
-  <si>
-    <t>21,4%</t>
-  </si>
-  <si>
-    <t>30,31%</t>
-  </si>
-  <si>
-    <t>37,41%</t>
-  </si>
-  <si>
-    <t>35,65%</t>
-  </si>
-  <si>
-    <t>27,99%</t>
-  </si>
-  <si>
-    <t>44,05%</t>
-  </si>
-  <si>
-    <t>32,49%</t>
-  </si>
-  <si>
-    <t>27,75%</t>
-  </si>
-  <si>
-    <t>37,76%</t>
-  </si>
-  <si>
-    <t>41,56%</t>
-  </si>
-  <si>
-    <t>35,17%</t>
-  </si>
-  <si>
-    <t>48,82%</t>
-  </si>
-  <si>
-    <t>36,85%</t>
-  </si>
-  <si>
-    <t>28,89%</t>
-  </si>
-  <si>
-    <t>45,78%</t>
-  </si>
-  <si>
-    <t>39,64%</t>
-  </si>
-  <si>
-    <t>33,84%</t>
-  </si>
-  <si>
-    <t>44,69%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>5,52%</t>
-  </si>
-  <si>
-    <t>7,2%</t>
-  </si>
-  <si>
-    <t>10,66%</t>
-  </si>
-  <si>
-    <t>4,92%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>6,77%</t>
-  </si>
-  <si>
-    <t>19,52%</t>
-  </si>
-  <si>
-    <t>16,01%</t>
-  </si>
-  <si>
-    <t>23,69%</t>
-  </si>
-  <si>
-    <t>16,6%</t>
-  </si>
-  <si>
-    <t>12,35%</t>
-  </si>
-  <si>
-    <t>21,87%</t>
-  </si>
-  <si>
-    <t>18,35%</t>
-  </si>
-  <si>
-    <t>15,51%</t>
-  </si>
-  <si>
-    <t>21,39%</t>
-  </si>
-  <si>
-    <t>27,54%</t>
-  </si>
-  <si>
-    <t>22,94%</t>
-  </si>
-  <si>
-    <t>31,61%</t>
-  </si>
-  <si>
-    <t>29,42%</t>
-  </si>
-  <si>
-    <t>24,68%</t>
-  </si>
-  <si>
-    <t>35,09%</t>
-  </si>
-  <si>
-    <t>28,29%</t>
-  </si>
-  <si>
-    <t>24,94%</t>
-  </si>
-  <si>
-    <t>31,67%</t>
-  </si>
-  <si>
-    <t>47,78%</t>
-  </si>
-  <si>
-    <t>43,13%</t>
-  </si>
-  <si>
-    <t>52,52%</t>
-  </si>
-  <si>
-    <t>44,65%</t>
-  </si>
-  <si>
-    <t>38,45%</t>
-  </si>
-  <si>
-    <t>50,43%</t>
-  </si>
-  <si>
-    <t>46,54%</t>
-  </si>
-  <si>
-    <t>42,63%</t>
-  </si>
-  <si>
-    <t>50,54%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>6,53%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>8,41%</t>
-  </si>
-  <si>
-    <t>5,59%</t>
-  </si>
-  <si>
-    <t>12,08%</t>
-  </si>
-  <si>
-    <t>10,33%</t>
-  </si>
-  <si>
-    <t>7,15%</t>
-  </si>
-  <si>
-    <t>14,86%</t>
-  </si>
-  <si>
-    <t>9,23%</t>
-  </si>
-  <si>
-    <t>7,04%</t>
-  </si>
-  <si>
-    <t>12,23%</t>
-  </si>
-  <si>
-    <t>31,06%</t>
-  </si>
-  <si>
-    <t>36,57%</t>
-  </si>
-  <si>
-    <t>24,5%</t>
-  </si>
-  <si>
-    <t>20,04%</t>
-  </si>
-  <si>
-    <t>30,71%</t>
-  </si>
-  <si>
-    <t>28,27%</t>
-  </si>
-  <si>
-    <t>24,58%</t>
-  </si>
-  <si>
-    <t>32,27%</t>
-  </si>
-  <si>
-    <t>22,73%</t>
-  </si>
-  <si>
-    <t>18,36%</t>
-  </si>
-  <si>
-    <t>27,2%</t>
-  </si>
-  <si>
-    <t>27,81%</t>
-  </si>
-  <si>
-    <t>22,55%</t>
-  </si>
-  <si>
-    <t>33,14%</t>
-  </si>
-  <si>
-    <t>24,9%</t>
-  </si>
-  <si>
-    <t>21,1%</t>
-  </si>
-  <si>
-    <t>28,61%</t>
-  </si>
-  <si>
-    <t>33,9%</t>
-  </si>
-  <si>
-    <t>29,04%</t>
-  </si>
-  <si>
-    <t>39,34%</t>
-  </si>
-  <si>
-    <t>34,9%</t>
-  </si>
-  <si>
-    <t>29,13%</t>
-  </si>
-  <si>
-    <t>40,7%</t>
-  </si>
-  <si>
-    <t>34,33%</t>
-  </si>
-  <si>
-    <t>38,54%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>5,65%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>5,27%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>6,66%</t>
+  </si>
+  <si>
+    <t>5,81%</t>
+  </si>
+  <si>
+    <t>8,92%</t>
+  </si>
+  <si>
+    <t>6,06%</t>
   </si>
   <si>
     <t>5,19%</t>
   </si>
   <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>7,17%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>5,13%</t>
-  </si>
-  <si>
-    <t>13,26%</t>
-  </si>
-  <si>
-    <t>9,73%</t>
-  </si>
-  <si>
-    <t>16,9%</t>
-  </si>
-  <si>
-    <t>12,62%</t>
-  </si>
-  <si>
-    <t>9,37%</t>
-  </si>
-  <si>
-    <t>16,49%</t>
-  </si>
-  <si>
-    <t>12,98%</t>
-  </si>
-  <si>
-    <t>10,7%</t>
-  </si>
-  <si>
-    <t>15,45%</t>
-  </si>
-  <si>
-    <t>26,41%</t>
-  </si>
-  <si>
-    <t>22,45%</t>
-  </si>
-  <si>
-    <t>31,21%</t>
-  </si>
-  <si>
-    <t>24,43%</t>
-  </si>
-  <si>
-    <t>19,82%</t>
-  </si>
-  <si>
-    <t>29,75%</t>
-  </si>
-  <si>
-    <t>25,52%</t>
-  </si>
-  <si>
-    <t>21,92%</t>
-  </si>
-  <si>
-    <t>28,88%</t>
-  </si>
-  <si>
-    <t>54,72%</t>
-  </si>
-  <si>
-    <t>49,67%</t>
-  </si>
-  <si>
-    <t>59,65%</t>
-  </si>
-  <si>
-    <t>55,16%</t>
-  </si>
-  <si>
-    <t>49,42%</t>
-  </si>
-  <si>
-    <t>60,7%</t>
-  </si>
-  <si>
-    <t>54,92%</t>
-  </si>
-  <si>
-    <t>51,35%</t>
-  </si>
-  <si>
-    <t>58,86%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>5,27%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>6,58%</t>
-  </si>
-  <si>
-    <t>7,14%</t>
-  </si>
-  <si>
-    <t>5,73%</t>
-  </si>
-  <si>
-    <t>8,89%</t>
-  </si>
-  <si>
-    <t>6,06%</t>
-  </si>
-  <si>
-    <t>5,17%</t>
+    <t>7,11%</t>
   </si>
   <si>
     <t>20,12%</t>
   </si>
   <si>
-    <t>18,12%</t>
-  </si>
-  <si>
-    <t>22,49%</t>
+    <t>18,07%</t>
+  </si>
+  <si>
+    <t>22,33%</t>
   </si>
   <si>
     <t>17,81%</t>
   </si>
   <si>
-    <t>20,3%</t>
-  </si>
-  <si>
-    <t>19,15%</t>
-  </si>
-  <si>
-    <t>17,49%</t>
-  </si>
-  <si>
-    <t>20,93%</t>
+    <t>15,54%</t>
+  </si>
+  <si>
+    <t>20,09%</t>
+  </si>
+  <si>
+    <t>17,42%</t>
+  </si>
+  <si>
+    <t>20,7%</t>
   </si>
   <si>
     <t>26,57%</t>
   </si>
   <si>
-    <t>24,36%</t>
-  </si>
-  <si>
-    <t>29,21%</t>
-  </si>
-  <si>
-    <t>25,49%</t>
-  </si>
-  <si>
-    <t>31,18%</t>
+    <t>24,1%</t>
+  </si>
+  <si>
+    <t>28,99%</t>
+  </si>
+  <si>
+    <t>25,34%</t>
+  </si>
+  <si>
+    <t>31,13%</t>
   </si>
   <si>
     <t>27,29%</t>
   </si>
   <si>
-    <t>25,41%</t>
-  </si>
-  <si>
-    <t>28,96%</t>
+    <t>25,6%</t>
+  </si>
+  <si>
+    <t>29,14%</t>
   </si>
   <si>
     <t>45,32%</t>
   </si>
   <si>
-    <t>42,71%</t>
-  </si>
-  <si>
-    <t>48,29%</t>
+    <t>42,53%</t>
+  </si>
+  <si>
+    <t>48,0%</t>
   </si>
   <si>
     <t>44,12%</t>
@@ -1575,16 +1557,16 @@
     <t>41,02%</t>
   </si>
   <si>
-    <t>47,29%</t>
+    <t>47,25%</t>
   </si>
   <si>
     <t>44,82%</t>
   </si>
   <si>
-    <t>42,73%</t>
-  </si>
-  <si>
-    <t>46,77%</t>
+    <t>42,74%</t>
+  </si>
+  <si>
+    <t>46,82%</t>
   </si>
 </sst>
 </file>
@@ -1996,7 +1978,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DA9C8B6-A6B5-474A-950C-19F7A41B3DEC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B6F0B09-D82D-4F9C-9728-22545E44481E}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2497,10 +2479,10 @@
         <v>66</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="M11" s="7">
         <v>8</v>
@@ -2509,13 +2491,13 @@
         <v>10033</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2530,13 +2512,13 @@
         <v>24193</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H12" s="7">
         <v>20</v>
@@ -2545,13 +2527,13 @@
         <v>19970</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="M12" s="7">
         <v>43</v>
@@ -2560,13 +2542,13 @@
         <v>44162</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2581,13 +2563,13 @@
         <v>54739</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H13" s="7">
         <v>36</v>
@@ -2596,13 +2578,13 @@
         <v>36947</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="M13" s="7">
         <v>87</v>
@@ -2611,13 +2593,13 @@
         <v>91686</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>38</v>
+        <v>88</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2632,13 +2614,13 @@
         <v>128259</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="H14" s="7">
         <v>66</v>
@@ -2647,13 +2629,13 @@
         <v>72049</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="M14" s="7">
         <v>189</v>
@@ -2662,13 +2644,13 @@
         <v>200308</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2724,7 +2706,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2736,13 +2718,13 @@
         <v>6073</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="H16" s="7">
         <v>3</v>
@@ -2751,13 +2733,13 @@
         <v>3374</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="M16" s="7">
         <v>9</v>
@@ -2766,13 +2748,13 @@
         <v>9447</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2787,13 +2769,13 @@
         <v>10947</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="H17" s="7">
         <v>8</v>
@@ -2805,10 +2787,10 @@
         <v>66</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="M17" s="7">
         <v>18</v>
@@ -2817,13 +2799,13 @@
         <v>20792</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2838,13 +2820,13 @@
         <v>58665</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>116</v>
+        <v>72</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="H18" s="7">
         <v>49</v>
@@ -2853,10 +2835,10 @@
         <v>52404</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>119</v>
+        <v>75</v>
       </c>
       <c r="L18" s="7" t="s">
         <v>120</v>
@@ -2922,10 +2904,10 @@
         <v>130</v>
       </c>
       <c r="P19" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>131</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2940,13 +2922,13 @@
         <v>246675</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>134</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>135</v>
       </c>
       <c r="H20" s="7">
         <v>126</v>
@@ -2955,13 +2937,13 @@
         <v>140441</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>137</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>138</v>
       </c>
       <c r="M20" s="7">
         <v>352</v>
@@ -2970,13 +2952,13 @@
         <v>387116</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>140</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3032,7 +3014,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -3044,13 +3026,13 @@
         <v>4117</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="G22" s="7" t="s">
         <v>144</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>145</v>
       </c>
       <c r="H22" s="7">
         <v>4</v>
@@ -3059,13 +3041,13 @@
         <v>4614</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>146</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>148</v>
       </c>
       <c r="M22" s="7">
         <v>8</v>
@@ -3074,13 +3056,13 @@
         <v>8731</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>149</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3095,13 +3077,13 @@
         <v>16940</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>152</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>154</v>
       </c>
       <c r="H23" s="7">
         <v>13</v>
@@ -3110,13 +3092,13 @@
         <v>16478</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>155</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>157</v>
       </c>
       <c r="M23" s="7">
         <v>26</v>
@@ -3125,13 +3107,13 @@
         <v>33417</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>158</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3146,13 +3128,13 @@
         <v>40870</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="G24" s="7" t="s">
         <v>161</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>163</v>
       </c>
       <c r="H24" s="7">
         <v>27</v>
@@ -3161,13 +3143,13 @@
         <v>31461</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="L24" s="7" t="s">
         <v>164</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>166</v>
       </c>
       <c r="M24" s="7">
         <v>65</v>
@@ -3176,13 +3158,13 @@
         <v>72331</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="Q24" s="7" t="s">
         <v>167</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3197,13 +3179,13 @@
         <v>52743</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>170</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>172</v>
       </c>
       <c r="H25" s="7">
         <v>46</v>
@@ -3212,13 +3194,13 @@
         <v>51494</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>173</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>175</v>
       </c>
       <c r="M25" s="7">
         <v>95</v>
@@ -3227,13 +3209,13 @@
         <v>104237</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>81</v>
+        <v>174</v>
       </c>
       <c r="P25" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>176</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3248,13 +3230,13 @@
         <v>204744</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="G26" s="7" t="s">
         <v>179</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>180</v>
       </c>
       <c r="H26" s="7">
         <v>101</v>
@@ -3263,13 +3245,13 @@
         <v>109407</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>182</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>183</v>
       </c>
       <c r="M26" s="7">
         <v>287</v>
@@ -3278,13 +3260,13 @@
         <v>314150</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="P26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>185</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3340,7 +3322,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -3352,13 +3334,13 @@
         <v>6683</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="F28" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="F28" s="7" t="s">
+      <c r="G28" s="7" t="s">
         <v>189</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>190</v>
       </c>
       <c r="H28" s="7">
         <v>8</v>
@@ -3367,10 +3349,10 @@
         <v>7581</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="K28" s="7" t="s">
         <v>191</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>101</v>
       </c>
       <c r="L28" s="7" t="s">
         <v>192</v>
@@ -3421,10 +3403,10 @@
         <v>199</v>
       </c>
       <c r="K29" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>200</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>201</v>
       </c>
       <c r="M29" s="7">
         <v>25</v>
@@ -3433,13 +3415,13 @@
         <v>25242</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="P29" s="7" t="s">
         <v>202</v>
       </c>
-      <c r="P29" s="7" t="s">
+      <c r="Q29" s="7" t="s">
         <v>203</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3454,13 +3436,13 @@
         <v>66824</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="F30" s="7" t="s">
         <v>205</v>
       </c>
-      <c r="F30" s="7" t="s">
+      <c r="G30" s="7" t="s">
         <v>206</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>207</v>
       </c>
       <c r="H30" s="7">
         <v>46</v>
@@ -3469,13 +3451,13 @@
         <v>49816</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="K30" s="7" t="s">
         <v>208</v>
       </c>
-      <c r="K30" s="7" t="s">
+      <c r="L30" s="7" t="s">
         <v>209</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>210</v>
       </c>
       <c r="M30" s="7">
         <v>109</v>
@@ -3484,13 +3466,13 @@
         <v>116640</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="P30" s="7" t="s">
         <v>211</v>
       </c>
-      <c r="P30" s="7" t="s">
+      <c r="Q30" s="7" t="s">
         <v>212</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -3505,13 +3487,13 @@
         <v>112216</v>
       </c>
       <c r="E31" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="F31" s="7" t="s">
         <v>214</v>
       </c>
-      <c r="F31" s="7" t="s">
+      <c r="G31" s="7" t="s">
         <v>215</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>216</v>
       </c>
       <c r="H31" s="7">
         <v>75</v>
@@ -3520,13 +3502,13 @@
         <v>75994</v>
       </c>
       <c r="J31" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="K31" s="7" t="s">
         <v>217</v>
       </c>
-      <c r="K31" s="7" t="s">
+      <c r="L31" s="7" t="s">
         <v>218</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>219</v>
       </c>
       <c r="M31" s="7">
         <v>187</v>
@@ -3535,13 +3517,13 @@
         <v>188210</v>
       </c>
       <c r="O31" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="P31" s="7" t="s">
         <v>220</v>
       </c>
-      <c r="P31" s="7" t="s">
+      <c r="Q31" s="7" t="s">
         <v>221</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -3556,13 +3538,13 @@
         <v>215488</v>
       </c>
       <c r="E32" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="F32" s="7" t="s">
         <v>223</v>
       </c>
-      <c r="F32" s="7" t="s">
+      <c r="G32" s="7" t="s">
         <v>224</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>225</v>
       </c>
       <c r="H32" s="7">
         <v>149</v>
@@ -3571,10 +3553,10 @@
         <v>158298</v>
       </c>
       <c r="J32" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="K32" s="7" t="s">
         <v>226</v>
-      </c>
-      <c r="K32" s="7" t="s">
-        <v>51</v>
       </c>
       <c r="L32" s="7" t="s">
         <v>227</v>
@@ -3583,7 +3565,7 @@
         <v>355</v>
       </c>
       <c r="N32" s="7">
-        <v>373787</v>
+        <v>373786</v>
       </c>
       <c r="O32" s="7" t="s">
         <v>228</v>
@@ -3634,7 +3616,7 @@
         <v>690</v>
       </c>
       <c r="N33" s="7">
-        <v>718143</v>
+        <v>718142</v>
       </c>
       <c r="O33" s="7" t="s">
         <v>53</v>
@@ -3675,13 +3657,13 @@
         <v>17738</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>233</v>
+        <v>115</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>234</v>
+        <v>194</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>235</v>
+        <v>151</v>
       </c>
       <c r="M34" s="7">
         <v>39</v>
@@ -3690,13 +3672,13 @@
         <v>40287</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>237</v>
+        <v>70</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>238</v>
+        <v>202</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -3711,13 +3693,13 @@
         <v>50441</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="H35" s="7">
         <v>34</v>
@@ -3726,13 +3708,13 @@
         <v>40125</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>145</v>
+        <v>238</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="M35" s="7">
         <v>78</v>
@@ -3741,13 +3723,13 @@
         <v>90567</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>145</v>
+        <v>241</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -3762,13 +3744,13 @@
         <v>194189</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="H36" s="7">
         <v>143</v>
@@ -3777,13 +3759,13 @@
         <v>154624</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="M36" s="7">
         <v>326</v>
@@ -3792,13 +3774,13 @@
         <v>348813</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>254</v>
+        <v>121</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -3813,13 +3795,13 @@
         <v>322453</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>80</v>
+        <v>253</v>
       </c>
       <c r="H37" s="7">
         <v>225</v>
@@ -3828,13 +3810,13 @@
         <v>239243</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>215</v>
+        <v>255</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="M37" s="7">
         <v>535</v>
@@ -3843,13 +3825,13 @@
         <v>561696</v>
       </c>
       <c r="O37" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="P37" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="Q37" s="7" t="s">
         <v>259</v>
-      </c>
-      <c r="P37" s="7" t="s">
-        <v>260</v>
-      </c>
-      <c r="Q37" s="7" t="s">
-        <v>261</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3864,13 +3846,13 @@
         <v>828095</v>
       </c>
       <c r="E38" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="F38" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="G38" s="7" t="s">
         <v>262</v>
-      </c>
-      <c r="F38" s="7" t="s">
-        <v>263</v>
-      </c>
-      <c r="G38" s="7" t="s">
-        <v>264</v>
       </c>
       <c r="H38" s="7">
         <v>453</v>
@@ -3879,13 +3861,13 @@
         <v>493001</v>
       </c>
       <c r="J38" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="K38" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="L38" s="7" t="s">
         <v>265</v>
-      </c>
-      <c r="K38" s="7" t="s">
-        <v>266</v>
-      </c>
-      <c r="L38" s="7" t="s">
-        <v>267</v>
       </c>
       <c r="M38" s="7">
         <v>1226</v>
@@ -3894,13 +3876,13 @@
         <v>1321096</v>
       </c>
       <c r="O38" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="P38" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="Q38" s="7" t="s">
         <v>268</v>
-      </c>
-      <c r="P38" s="7" t="s">
-        <v>269</v>
-      </c>
-      <c r="Q38" s="7" t="s">
-        <v>270</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -3956,7 +3938,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
   </sheetData>
@@ -3977,7 +3959,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1342B1A7-A839-4ABD-A12B-741CB162F615}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D2CDC31-3F4C-40DD-A239-91152A3322C5}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3994,7 +3976,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4101,13 +4083,13 @@
         <v>1108</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>274</v>
+        <v>169</v>
       </c>
       <c r="H4" s="7">
         <v>1</v>
@@ -4116,13 +4098,13 @@
         <v>968</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="M4" s="7">
         <v>2</v>
@@ -4131,13 +4113,13 @@
         <v>2076</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4152,13 +4134,13 @@
         <v>933</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="H5" s="7">
         <v>2</v>
@@ -4167,13 +4149,13 @@
         <v>1843</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="M5" s="7">
         <v>3</v>
@@ -4182,13 +4164,13 @@
         <v>2776</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4203,13 +4185,13 @@
         <v>5988</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="H6" s="7">
         <v>8</v>
@@ -4218,13 +4200,13 @@
         <v>7445</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="M6" s="7">
         <v>14</v>
@@ -4233,13 +4215,13 @@
         <v>13434</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4254,13 +4236,13 @@
         <v>14878</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="H7" s="7">
         <v>10</v>
@@ -4269,13 +4251,13 @@
         <v>8878</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="M7" s="7">
         <v>25</v>
@@ -4284,13 +4266,13 @@
         <v>23757</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4305,13 +4287,13 @@
         <v>21113</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="H8" s="7">
         <v>11</v>
@@ -4320,13 +4302,13 @@
         <v>10756</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="M8" s="7">
         <v>31</v>
@@ -4335,13 +4317,13 @@
         <v>31869</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4409,13 +4391,13 @@
         <v>5521</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>314</v>
+        <v>231</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="H10" s="7">
         <v>3</v>
@@ -4424,13 +4406,13 @@
         <v>3357</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>317</v>
+        <v>188</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="M10" s="7">
         <v>8</v>
@@ -4439,13 +4421,13 @@
         <v>8877</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>319</v>
+        <v>197</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>200</v>
+        <v>314</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4460,13 +4442,13 @@
         <v>17332</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="H11" s="7">
         <v>11</v>
@@ -4475,13 +4457,13 @@
         <v>9986</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="M11" s="7">
         <v>28</v>
@@ -4490,13 +4472,13 @@
         <v>27318</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4511,13 +4493,13 @@
         <v>33205</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>169</v>
+        <v>325</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="H12" s="7">
         <v>26</v>
@@ -4526,13 +4508,13 @@
         <v>24457</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>333</v>
+        <v>287</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="M12" s="7">
         <v>56</v>
@@ -4541,13 +4523,13 @@
         <v>57662</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>163</v>
+        <v>330</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4562,13 +4544,13 @@
         <v>60389</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>120</v>
+        <v>334</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="H13" s="7">
         <v>51</v>
@@ -4577,13 +4559,13 @@
         <v>49012</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="M13" s="7">
         <v>109</v>
@@ -4592,13 +4574,13 @@
         <v>109401</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4613,13 +4595,13 @@
         <v>82823</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="H14" s="7">
         <v>51</v>
@@ -4628,13 +4610,13 @@
         <v>50667</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="M14" s="7">
         <v>129</v>
@@ -4643,13 +4625,13 @@
         <v>133489</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4705,7 +4687,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4717,13 +4699,13 @@
         <v>7247</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>189</v>
+        <v>352</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="H16" s="7">
         <v>5</v>
@@ -4732,13 +4714,13 @@
         <v>5841</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>354</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>355</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>356</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>357</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>287</v>
       </c>
       <c r="M16" s="7">
         <v>11</v>
@@ -4747,13 +4729,13 @@
         <v>13088</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>26</v>
+        <v>357</v>
       </c>
       <c r="P16" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>358</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>359</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4768,13 +4750,13 @@
         <v>14142</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>359</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>360</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>361</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>362</v>
       </c>
       <c r="H17" s="7">
         <v>19</v>
@@ -4783,10 +4765,10 @@
         <v>19700</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>363</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>242</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>364</v>
@@ -4801,10 +4783,10 @@
         <v>365</v>
       </c>
       <c r="P17" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>366</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>367</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4819,13 +4801,13 @@
         <v>80801</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="G18" s="7" t="s">
         <v>368</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>369</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>370</v>
       </c>
       <c r="H18" s="7">
         <v>47</v>
@@ -4834,13 +4816,13 @@
         <v>45436</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>373</v>
+        <v>279</v>
       </c>
       <c r="M18" s="7">
         <v>120</v>
@@ -4849,13 +4831,13 @@
         <v>126237</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4870,13 +4852,13 @@
         <v>114014</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="H19" s="7">
         <v>79</v>
@@ -4885,13 +4867,13 @@
         <v>80555</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="M19" s="7">
         <v>185</v>
@@ -4900,13 +4882,13 @@
         <v>194569</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4921,13 +4903,13 @@
         <v>197837</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="H20" s="7">
         <v>117</v>
@@ -4936,13 +4918,13 @@
         <v>122240</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="M20" s="7">
         <v>291</v>
@@ -4951,13 +4933,13 @@
         <v>320077</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5013,7 +4995,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -5025,13 +5007,13 @@
         <v>14172</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>395</v>
+        <v>320</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>397</v>
+        <v>278</v>
       </c>
       <c r="H22" s="7">
         <v>6</v>
@@ -5040,13 +5022,13 @@
         <v>6637</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>204</v>
+        <v>395</v>
       </c>
       <c r="M22" s="7">
         <v>19</v>
@@ -5055,13 +5037,13 @@
         <v>20809</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>402</v>
+        <v>203</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5076,13 +5058,13 @@
         <v>30609</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="H23" s="7">
         <v>28</v>
@@ -5091,13 +5073,13 @@
         <v>27956</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="M23" s="7">
         <v>54</v>
@@ -5106,13 +5088,13 @@
         <v>58566</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>409</v>
+        <v>68</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5127,13 +5109,13 @@
         <v>113018</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>220</v>
+        <v>407</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="H24" s="7">
         <v>66</v>
@@ -5142,13 +5124,13 @@
         <v>66293</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>415</v>
+        <v>119</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="M24" s="7">
         <v>165</v>
@@ -5157,13 +5139,13 @@
         <v>179310</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>417</v>
+        <v>411</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>419</v>
+        <v>40</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5178,13 +5160,13 @@
         <v>82693</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>420</v>
+        <v>413</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>421</v>
+        <v>414</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>422</v>
+        <v>415</v>
       </c>
       <c r="H25" s="7">
         <v>73</v>
@@ -5193,13 +5175,13 @@
         <v>75242</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>423</v>
+        <v>416</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>424</v>
+        <v>417</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>425</v>
+        <v>418</v>
       </c>
       <c r="M25" s="7">
         <v>148</v>
@@ -5208,13 +5190,13 @@
         <v>157935</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>426</v>
+        <v>381</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>427</v>
+        <v>41</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>428</v>
+        <v>419</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5229,13 +5211,13 @@
         <v>123328</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>429</v>
+        <v>420</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>430</v>
+        <v>421</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>431</v>
+        <v>422</v>
       </c>
       <c r="H26" s="7">
         <v>92</v>
@@ -5244,13 +5226,13 @@
         <v>94430</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>432</v>
+        <v>423</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>433</v>
+        <v>424</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>434</v>
+        <v>425</v>
       </c>
       <c r="M26" s="7">
         <v>206</v>
@@ -5259,13 +5241,13 @@
         <v>217758</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>435</v>
+        <v>426</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>175</v>
+        <v>427</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>436</v>
+        <v>428</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5321,7 +5303,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -5333,13 +5315,13 @@
         <v>10591</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>319</v>
+        <v>197</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>437</v>
+        <v>429</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>438</v>
+        <v>430</v>
       </c>
       <c r="H28" s="7">
         <v>10</v>
@@ -5348,13 +5330,13 @@
         <v>10702</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>439</v>
+        <v>144</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>188</v>
+        <v>431</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>440</v>
+        <v>432</v>
       </c>
       <c r="M28" s="7">
         <v>20</v>
@@ -5363,13 +5345,13 @@
         <v>21292</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>441</v>
+        <v>433</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>26</v>
+        <v>434</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>442</v>
+        <v>435</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5384,13 +5366,13 @@
         <v>11918</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>443</v>
+        <v>238</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>98</v>
+        <v>436</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>444</v>
+        <v>437</v>
       </c>
       <c r="H29" s="7">
         <v>14</v>
@@ -5399,13 +5381,13 @@
         <v>14611</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>445</v>
+        <v>438</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>446</v>
+        <v>439</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>447</v>
+        <v>440</v>
       </c>
       <c r="M29" s="7">
         <v>25</v>
@@ -5414,13 +5396,13 @@
         <v>26529</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>238</v>
+        <v>442</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>449</v>
+        <v>443</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5435,13 +5417,13 @@
         <v>53202</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>451</v>
+        <v>445</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>452</v>
+        <v>330</v>
       </c>
       <c r="H30" s="7">
         <v>40</v>
@@ -5450,13 +5432,13 @@
         <v>41089</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>453</v>
+        <v>446</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>454</v>
+        <v>447</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>455</v>
+        <v>448</v>
       </c>
       <c r="M30" s="7">
         <v>92</v>
@@ -5465,13 +5447,13 @@
         <v>94291</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>456</v>
+        <v>449</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>457</v>
+        <v>450</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>458</v>
+        <v>451</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -5486,13 +5468,13 @@
         <v>105936</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>460</v>
+        <v>299</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>461</v>
+        <v>453</v>
       </c>
       <c r="H31" s="7">
         <v>76</v>
@@ -5501,13 +5483,13 @@
         <v>79526</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>462</v>
+        <v>454</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>463</v>
+        <v>455</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>464</v>
+        <v>456</v>
       </c>
       <c r="M31" s="7">
         <v>181</v>
@@ -5516,13 +5498,13 @@
         <v>185462</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>465</v>
+        <v>457</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>466</v>
+        <v>458</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>467</v>
+        <v>459</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -5537,13 +5519,13 @@
         <v>219524</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>468</v>
+        <v>460</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>469</v>
+        <v>461</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>470</v>
+        <v>462</v>
       </c>
       <c r="H32" s="7">
         <v>167</v>
@@ -5552,13 +5534,13 @@
         <v>179546</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>471</v>
+        <v>463</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>472</v>
+        <v>464</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>473</v>
+        <v>465</v>
       </c>
       <c r="M32" s="7">
         <v>382</v>
@@ -5567,13 +5549,13 @@
         <v>399070</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>474</v>
+        <v>466</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>475</v>
+        <v>467</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>476</v>
+        <v>468</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -5641,13 +5623,13 @@
         <v>38639</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>477</v>
+        <v>469</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>26</v>
+        <v>470</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="H34" s="7">
         <v>25</v>
@@ -5656,13 +5638,13 @@
         <v>27505</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>106</v>
+        <v>472</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>479</v>
+        <v>473</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>480</v>
+        <v>474</v>
       </c>
       <c r="M34" s="7">
         <v>60</v>
@@ -5671,13 +5653,13 @@
         <v>66143</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>481</v>
+        <v>475</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>482</v>
+        <v>276</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>19</v>
+        <v>476</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -5692,13 +5674,13 @@
         <v>74934</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>483</v>
+        <v>477</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>484</v>
+        <v>478</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>485</v>
+        <v>479</v>
       </c>
       <c r="H35" s="7">
         <v>74</v>
@@ -5707,13 +5689,13 @@
         <v>74096</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>486</v>
+        <v>402</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>487</v>
+        <v>480</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>488</v>
+        <v>481</v>
       </c>
       <c r="M35" s="7">
         <v>142</v>
@@ -5722,13 +5704,13 @@
         <v>149030</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>489</v>
+        <v>482</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>490</v>
+        <v>483</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -5743,13 +5725,13 @@
         <v>286215</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>491</v>
+        <v>485</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>492</v>
+        <v>486</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>493</v>
+        <v>487</v>
       </c>
       <c r="H36" s="7">
         <v>187</v>
@@ -5758,13 +5740,13 @@
         <v>184719</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>375</v>
+        <v>489</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="M36" s="7">
         <v>447</v>
@@ -5773,13 +5755,13 @@
         <v>470934</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>496</v>
+        <v>248</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -5794,13 +5776,13 @@
         <v>377909</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>499</v>
+        <v>493</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>500</v>
+        <v>494</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="H37" s="7">
         <v>289</v>
@@ -5809,13 +5791,13 @@
         <v>293214</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>417</v>
+        <v>411</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>502</v>
+        <v>496</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>503</v>
+        <v>497</v>
       </c>
       <c r="M37" s="7">
         <v>648</v>
@@ -5824,13 +5806,13 @@
         <v>671123</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>505</v>
+        <v>499</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>506</v>
+        <v>500</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -5845,13 +5827,13 @@
         <v>644625</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>507</v>
+        <v>501</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>508</v>
+        <v>502</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>509</v>
+        <v>503</v>
       </c>
       <c r="H38" s="7">
         <v>438</v>
@@ -5860,13 +5842,13 @@
         <v>457638</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>510</v>
+        <v>504</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>511</v>
+        <v>505</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>512</v>
+        <v>506</v>
       </c>
       <c r="M38" s="7">
         <v>1039</v>
@@ -5875,13 +5857,13 @@
         <v>1102263</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>513</v>
+        <v>507</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>514</v>
+        <v>508</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>515</v>
+        <v>509</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -5937,7 +5919,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P6714-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P6714-Habitat-trans_orig.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A12598A0-D0D8-4571-ADC8-1DDC96BE62C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E35D1A4E-6213-4CC0-9823-095C61F485EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{CF9F4A46-F7D0-428C-BEBE-FC638758A499}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{D924A60E-36FA-4F94-ACDB-E180AD86825E}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
-    <sheet name="2015" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="772" uniqueCount="510">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="772" uniqueCount="512">
   <si>
     <t>Población según si se sienten comprometidos con su profesión en 2012 (Tasa respuesta: 33,87%)</t>
   </si>
@@ -66,7 +66,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Nunca</t>
@@ -78,7 +78,7 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>6,69%</t>
+    <t>7,04%</t>
   </si>
   <si>
     <t>0%</t>
@@ -90,7 +90,7 @@
     <t>0,96%</t>
   </si>
   <si>
-    <t>4,33%</t>
+    <t>4,81%</t>
   </si>
   <si>
     <t>Solo alguna vez</t>
@@ -102,1471 +102,1477 @@
     <t>4,3%</t>
   </si>
   <si>
-    <t>21,88%</t>
+    <t>21,71%</t>
   </si>
   <si>
     <t>1,41%</t>
   </si>
   <si>
+    <t>7,14%</t>
+  </si>
+  <si>
+    <t>Algunas veces</t>
+  </si>
+  <si>
+    <t>7,03%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>16,28%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>19,41%</t>
+  </si>
+  <si>
+    <t>5,99%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>13,55%</t>
+  </si>
+  <si>
+    <t>Muchas veces</t>
+  </si>
+  <si>
+    <t>27,88%</t>
+  </si>
+  <si>
+    <t>17,74%</t>
+  </si>
+  <si>
+    <t>40,87%</t>
+  </si>
+  <si>
+    <t>41,0%</t>
+  </si>
+  <si>
+    <t>21,57%</t>
+  </si>
+  <si>
+    <t>61,97%</t>
+  </si>
+  <si>
+    <t>32,18%</t>
+  </si>
+  <si>
+    <t>22,22%</t>
+  </si>
+  <si>
+    <t>43,52%</t>
+  </si>
+  <si>
+    <t>Siempre</t>
+  </si>
+  <si>
+    <t>63,65%</t>
+  </si>
+  <si>
+    <t>50,44%</t>
+  </si>
+  <si>
+    <t>75,71%</t>
+  </si>
+  <si>
+    <t>50,84%</t>
+  </si>
+  <si>
+    <t>29,86%</t>
+  </si>
+  <si>
+    <t>73,4%</t>
+  </si>
+  <si>
+    <t>59,46%</t>
+  </si>
+  <si>
+    <t>48,54%</t>
+  </si>
+  <si>
+    <t>70,82%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2-10.000 hab</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>5,64%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>6,06%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>8,78%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>5,39%</t>
+  </si>
+  <si>
+    <t>11,14%</t>
+  </si>
+  <si>
     <t>7,24%</t>
   </si>
   <si>
-    <t>Algunas veces</t>
-  </si>
-  <si>
-    <t>7,03%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>16,93%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>20,84%</t>
-  </si>
-  <si>
-    <t>5,99%</t>
+    <t>15,67%</t>
+  </si>
+  <si>
+    <t>14,67%</t>
+  </si>
+  <si>
+    <t>9,44%</t>
+  </si>
+  <si>
+    <t>21,77%</t>
+  </si>
+  <si>
+    <t>12,5%</t>
+  </si>
+  <si>
+    <t>9,17%</t>
+  </si>
+  <si>
+    <t>25,2%</t>
+  </si>
+  <si>
+    <t>19,6%</t>
+  </si>
+  <si>
+    <t>31,64%</t>
+  </si>
+  <si>
+    <t>27,15%</t>
+  </si>
+  <si>
+    <t>19,59%</t>
+  </si>
+  <si>
+    <t>34,81%</t>
+  </si>
+  <si>
+    <t>25,95%</t>
+  </si>
+  <si>
+    <t>21,45%</t>
+  </si>
+  <si>
+    <t>31,48%</t>
+  </si>
+  <si>
+    <t>59,05%</t>
+  </si>
+  <si>
+    <t>51,91%</t>
+  </si>
+  <si>
+    <t>66,23%</t>
+  </si>
+  <si>
+    <t>52,94%</t>
+  </si>
+  <si>
+    <t>44,46%</t>
+  </si>
+  <si>
+    <t>61,5%</t>
+  </si>
+  <si>
+    <t>56,7%</t>
+  </si>
+  <si>
+    <t>51,22%</t>
+  </si>
+  <si>
+    <t>62,01%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>7,15%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>4,75%</t>
+  </si>
+  <si>
+    <t>14,28%</t>
+  </si>
+  <si>
+    <t>10,92%</t>
+  </si>
+  <si>
+    <t>18,56%</t>
+  </si>
+  <si>
+    <t>19,37%</t>
+  </si>
+  <si>
+    <t>14,89%</t>
+  </si>
+  <si>
+    <t>25,14%</t>
+  </si>
+  <si>
+    <t>16,3%</t>
+  </si>
+  <si>
+    <t>13,67%</t>
+  </si>
+  <si>
+    <t>19,49%</t>
+  </si>
+  <si>
+    <t>21,51%</t>
+  </si>
+  <si>
+    <t>17,49%</t>
+  </si>
+  <si>
+    <t>26,27%</t>
+  </si>
+  <si>
+    <t>23,83%</t>
+  </si>
+  <si>
+    <t>18,23%</t>
+  </si>
+  <si>
+    <t>29,1%</t>
+  </si>
+  <si>
+    <t>22,43%</t>
+  </si>
+  <si>
+    <t>19,01%</t>
+  </si>
+  <si>
+    <t>25,77%</t>
+  </si>
+  <si>
+    <t>60,06%</t>
+  </si>
+  <si>
+    <t>54,62%</t>
+  </si>
+  <si>
+    <t>64,67%</t>
+  </si>
+  <si>
+    <t>45,92%</t>
+  </si>
+  <si>
+    <t>58,19%</t>
+  </si>
+  <si>
+    <t>56,83%</t>
+  </si>
+  <si>
+    <t>52,72%</t>
+  </si>
+  <si>
+    <t>60,58%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
   </si>
   <si>
     <t>2,16%</t>
   </si>
   <si>
-    <t>13,02%</t>
-  </si>
-  <si>
-    <t>Muchas veces</t>
-  </si>
-  <si>
-    <t>27,88%</t>
-  </si>
-  <si>
-    <t>16,32%</t>
-  </si>
-  <si>
-    <t>40,75%</t>
-  </si>
-  <si>
-    <t>41,0%</t>
-  </si>
-  <si>
-    <t>19,51%</t>
-  </si>
-  <si>
-    <t>62,45%</t>
-  </si>
-  <si>
-    <t>32,18%</t>
-  </si>
-  <si>
-    <t>21,92%</t>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>5,33%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>9,12%</t>
+  </si>
+  <si>
+    <t>7,72%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>13,07%</t>
+  </si>
+  <si>
+    <t>6,27%</t>
+  </si>
+  <si>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>8,88%</t>
+  </si>
+  <si>
+    <t>12,8%</t>
+  </si>
+  <si>
+    <t>9,3%</t>
+  </si>
+  <si>
+    <t>17,32%</t>
+  </si>
+  <si>
+    <t>14,74%</t>
+  </si>
+  <si>
+    <t>9,93%</t>
+  </si>
+  <si>
+    <t>20,9%</t>
+  </si>
+  <si>
+    <t>13,57%</t>
+  </si>
+  <si>
+    <t>10,69%</t>
+  </si>
+  <si>
+    <t>17,08%</t>
+  </si>
+  <si>
+    <t>16,51%</t>
+  </si>
+  <si>
+    <t>12,31%</t>
+  </si>
+  <si>
+    <t>21,21%</t>
+  </si>
+  <si>
+    <t>24,12%</t>
+  </si>
+  <si>
+    <t>18,48%</t>
+  </si>
+  <si>
+    <t>31,35%</t>
+  </si>
+  <si>
+    <t>19,56%</t>
+  </si>
+  <si>
+    <t>16,25%</t>
+  </si>
+  <si>
+    <t>23,58%</t>
+  </si>
+  <si>
+    <t>64,1%</t>
+  </si>
+  <si>
+    <t>57,99%</t>
+  </si>
+  <si>
+    <t>69,75%</t>
+  </si>
+  <si>
+    <t>51,26%</t>
+  </si>
+  <si>
+    <t>44,06%</t>
+  </si>
+  <si>
+    <t>58,68%</t>
+  </si>
+  <si>
+    <t>58,95%</t>
+  </si>
+  <si>
+    <t>53,87%</t>
+  </si>
+  <si>
+    <t>63,18%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>6,55%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>4,93%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>5,25%</t>
+  </si>
+  <si>
+    <t>15,96%</t>
+  </si>
+  <si>
+    <t>12,21%</t>
+  </si>
+  <si>
+    <t>19,91%</t>
+  </si>
+  <si>
+    <t>16,64%</t>
+  </si>
+  <si>
+    <t>12,79%</t>
+  </si>
+  <si>
+    <t>22,02%</t>
+  </si>
+  <si>
+    <t>16,24%</t>
+  </si>
+  <si>
+    <t>13,38%</t>
+  </si>
+  <si>
+    <t>19,17%</t>
+  </si>
+  <si>
+    <t>26,8%</t>
+  </si>
+  <si>
+    <t>31,08%</t>
+  </si>
+  <si>
+    <t>25,38%</t>
+  </si>
+  <si>
+    <t>20,45%</t>
+  </si>
+  <si>
+    <t>30,21%</t>
+  </si>
+  <si>
+    <t>26,21%</t>
+  </si>
+  <si>
+    <t>22,77%</t>
+  </si>
+  <si>
+    <t>29,7%</t>
+  </si>
+  <si>
+    <t>51,47%</t>
+  </si>
+  <si>
+    <t>46,27%</t>
+  </si>
+  <si>
+    <t>56,68%</t>
+  </si>
+  <si>
+    <t>52,86%</t>
+  </si>
+  <si>
+    <t>46,85%</t>
+  </si>
+  <si>
+    <t>58,55%</t>
+  </si>
+  <si>
+    <t>52,05%</t>
+  </si>
+  <si>
+    <t>48,18%</t>
+  </si>
+  <si>
+    <t>56,24%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>5,77%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>13,7%</t>
+  </si>
+  <si>
+    <t>11,86%</t>
+  </si>
+  <si>
+    <t>15,73%</t>
+  </si>
+  <si>
+    <t>16,37%</t>
+  </si>
+  <si>
+    <t>13,81%</t>
+  </si>
+  <si>
+    <t>18,91%</t>
+  </si>
+  <si>
+    <t>14,76%</t>
+  </si>
+  <si>
+    <t>13,44%</t>
+  </si>
+  <si>
+    <t>22,74%</t>
+  </si>
+  <si>
+    <t>25,18%</t>
+  </si>
+  <si>
+    <t>25,32%</t>
+  </si>
+  <si>
+    <t>22,29%</t>
+  </si>
+  <si>
+    <t>28,02%</t>
+  </si>
+  <si>
+    <t>23,78%</t>
+  </si>
+  <si>
+    <t>25,6%</t>
+  </si>
+  <si>
+    <t>58,41%</t>
+  </si>
+  <si>
+    <t>55,91%</t>
+  </si>
+  <si>
+    <t>61,07%</t>
+  </si>
+  <si>
+    <t>52,18%</t>
+  </si>
+  <si>
+    <t>49,18%</t>
+  </si>
+  <si>
+    <t>55,89%</t>
+  </si>
+  <si>
+    <t>55,92%</t>
+  </si>
+  <si>
+    <t>53,66%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si se sienten comprometidos con su profesión en 2016 (Tasa respuesta: 35,56%)</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>13,9%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>16,08%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>8,45%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>11,53%</t>
+  </si>
+  <si>
+    <t>6,17%</t>
+  </si>
+  <si>
+    <t>19,52%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>9,97%</t>
+  </si>
+  <si>
+    <t>13,6%</t>
+  </si>
+  <si>
+    <t>6,29%</t>
+  </si>
+  <si>
+    <t>24,94%</t>
+  </si>
+  <si>
+    <t>24,91%</t>
+  </si>
+  <si>
+    <t>11,98%</t>
+  </si>
+  <si>
+    <t>41,76%</t>
+  </si>
+  <si>
+    <t>18,18%</t>
+  </si>
+  <si>
+    <t>11,25%</t>
+  </si>
+  <si>
+    <t>28,57%</t>
+  </si>
+  <si>
+    <t>33,8%</t>
+  </si>
+  <si>
+    <t>20,57%</t>
+  </si>
+  <si>
+    <t>48,73%</t>
+  </si>
+  <si>
+    <t>14,81%</t>
+  </si>
+  <si>
+    <t>49,42%</t>
+  </si>
+  <si>
+    <t>32,14%</t>
+  </si>
+  <si>
+    <t>22,56%</t>
+  </si>
+  <si>
+    <t>42,91%</t>
+  </si>
+  <si>
+    <t>47,96%</t>
+  </si>
+  <si>
+    <t>33,01%</t>
+  </si>
+  <si>
+    <t>63,01%</t>
+  </si>
+  <si>
+    <t>35,98%</t>
+  </si>
+  <si>
+    <t>19,66%</t>
+  </si>
+  <si>
+    <t>55,24%</t>
+  </si>
+  <si>
+    <t>43,12%</t>
+  </si>
+  <si>
+    <t>31,71%</t>
+  </si>
+  <si>
+    <t>54,03%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>5,74%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>6,66%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>5,15%</t>
+  </si>
+  <si>
+    <t>8,7%</t>
+  </si>
+  <si>
+    <t>13,34%</t>
+  </si>
+  <si>
+    <t>7,26%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>12,84%</t>
+  </si>
+  <si>
+    <t>8,11%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>11,45%</t>
+  </si>
+  <si>
+    <t>16,66%</t>
+  </si>
+  <si>
+    <t>11,79%</t>
+  </si>
+  <si>
+    <t>22,67%</t>
+  </si>
+  <si>
+    <t>17,79%</t>
+  </si>
+  <si>
+    <t>12,51%</t>
+  </si>
+  <si>
+    <t>17,12%</t>
+  </si>
+  <si>
+    <t>13,45%</t>
+  </si>
+  <si>
+    <t>21,22%</t>
+  </si>
+  <si>
+    <t>30,31%</t>
+  </si>
+  <si>
+    <t>24,27%</t>
+  </si>
+  <si>
+    <t>37,86%</t>
+  </si>
+  <si>
+    <t>35,65%</t>
+  </si>
+  <si>
+    <t>27,67%</t>
   </si>
   <si>
     <t>43,69%</t>
   </si>
   <si>
-    <t>Siempre</t>
-  </si>
-  <si>
-    <t>63,65%</t>
-  </si>
-  <si>
-    <t>49,7%</t>
-  </si>
-  <si>
-    <t>75,61%</t>
-  </si>
-  <si>
-    <t>50,84%</t>
-  </si>
-  <si>
-    <t>29,45%</t>
-  </si>
-  <si>
-    <t>73,41%</t>
-  </si>
-  <si>
-    <t>59,46%</t>
-  </si>
-  <si>
-    <t>46,29%</t>
-  </si>
-  <si>
-    <t>69,71%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>4,96%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>5,6%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>6,2%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
+    <t>32,49%</t>
+  </si>
+  <si>
+    <t>27,31%</t>
+  </si>
+  <si>
+    <t>37,92%</t>
+  </si>
+  <si>
+    <t>41,56%</t>
+  </si>
+  <si>
+    <t>34,72%</t>
+  </si>
+  <si>
+    <t>48,97%</t>
+  </si>
+  <si>
+    <t>36,85%</t>
+  </si>
+  <si>
+    <t>28,31%</t>
+  </si>
+  <si>
+    <t>44,47%</t>
+  </si>
+  <si>
+    <t>39,64%</t>
+  </si>
+  <si>
+    <t>34,01%</t>
+  </si>
+  <si>
+    <t>44,72%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>4,92%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>5,54%</t>
+  </si>
+  <si>
+    <t>7,2%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>10,56%</t>
+  </si>
+  <si>
+    <t>6,79%</t>
+  </si>
+  <si>
+    <t>15,78%</t>
+  </si>
+  <si>
+    <t>23,65%</t>
+  </si>
+  <si>
+    <t>16,6%</t>
+  </si>
+  <si>
+    <t>12,53%</t>
+  </si>
+  <si>
+    <t>21,05%</t>
+  </si>
+  <si>
+    <t>18,35%</t>
+  </si>
+  <si>
+    <t>15,36%</t>
+  </si>
+  <si>
+    <t>21,31%</t>
+  </si>
+  <si>
+    <t>27,54%</t>
+  </si>
+  <si>
+    <t>23,22%</t>
+  </si>
+  <si>
+    <t>32,25%</t>
+  </si>
+  <si>
+    <t>29,42%</t>
+  </si>
+  <si>
+    <t>24,23%</t>
+  </si>
+  <si>
+    <t>35,53%</t>
+  </si>
+  <si>
+    <t>28,29%</t>
+  </si>
+  <si>
+    <t>24,82%</t>
+  </si>
+  <si>
+    <t>31,94%</t>
+  </si>
+  <si>
+    <t>47,78%</t>
+  </si>
+  <si>
+    <t>42,72%</t>
+  </si>
+  <si>
+    <t>53,26%</t>
+  </si>
+  <si>
+    <t>44,65%</t>
+  </si>
+  <si>
+    <t>38,68%</t>
+  </si>
+  <si>
+    <t>50,61%</t>
+  </si>
+  <si>
+    <t>46,54%</t>
+  </si>
+  <si>
+    <t>42,62%</t>
+  </si>
+  <si>
+    <t>50,21%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>6,76%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>4,86%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>4,99%</t>
+  </si>
+  <si>
+    <t>8,41%</t>
+  </si>
+  <si>
+    <t>5,63%</t>
+  </si>
+  <si>
+    <t>11,82%</t>
+  </si>
+  <si>
+    <t>10,33%</t>
+  </si>
+  <si>
+    <t>7,05%</t>
+  </si>
+  <si>
+    <t>13,97%</t>
   </si>
   <si>
     <t>9,23%</t>
   </si>
   <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>5,51%</t>
-  </si>
-  <si>
-    <t>11,14%</t>
-  </si>
-  <si>
-    <t>7,44%</t>
-  </si>
-  <si>
-    <t>16,07%</t>
-  </si>
-  <si>
-    <t>14,67%</t>
-  </si>
-  <si>
-    <t>9,49%</t>
-  </si>
-  <si>
-    <t>21,69%</t>
-  </si>
-  <si>
-    <t>12,5%</t>
+    <t>7,01%</t>
+  </si>
+  <si>
+    <t>12,05%</t>
+  </si>
+  <si>
+    <t>31,06%</t>
+  </si>
+  <si>
+    <t>26,41%</t>
+  </si>
+  <si>
+    <t>36,35%</t>
+  </si>
+  <si>
+    <t>24,5%</t>
+  </si>
+  <si>
+    <t>19,69%</t>
+  </si>
+  <si>
+    <t>29,81%</t>
+  </si>
+  <si>
+    <t>28,27%</t>
+  </si>
+  <si>
+    <t>24,58%</t>
+  </si>
+  <si>
+    <t>22,73%</t>
+  </si>
+  <si>
+    <t>18,43%</t>
+  </si>
+  <si>
+    <t>27,62%</t>
+  </si>
+  <si>
+    <t>27,81%</t>
+  </si>
+  <si>
+    <t>22,32%</t>
+  </si>
+  <si>
+    <t>33,09%</t>
+  </si>
+  <si>
+    <t>24,9%</t>
+  </si>
+  <si>
+    <t>21,5%</t>
+  </si>
+  <si>
+    <t>28,7%</t>
+  </si>
+  <si>
+    <t>33,9%</t>
+  </si>
+  <si>
+    <t>28,56%</t>
+  </si>
+  <si>
+    <t>39,14%</t>
+  </si>
+  <si>
+    <t>34,9%</t>
+  </si>
+  <si>
+    <t>29,29%</t>
+  </si>
+  <si>
+    <t>34,33%</t>
+  </si>
+  <si>
+    <t>30,65%</t>
+  </si>
+  <si>
+    <t>38,37%</t>
+  </si>
+  <si>
+    <t>4,76%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>5,82%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>7,21%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>13,26%</t>
+  </si>
+  <si>
+    <t>10,32%</t>
+  </si>
+  <si>
+    <t>17,09%</t>
+  </si>
+  <si>
+    <t>12,62%</t>
   </si>
   <si>
     <t>9,34%</t>
   </si>
   <si>
-    <t>16,44%</t>
-  </si>
-  <si>
-    <t>25,2%</t>
-  </si>
-  <si>
-    <t>19,6%</t>
-  </si>
-  <si>
-    <t>31,67%</t>
-  </si>
-  <si>
-    <t>27,15%</t>
-  </si>
-  <si>
-    <t>20,02%</t>
-  </si>
-  <si>
-    <t>35,35%</t>
-  </si>
-  <si>
-    <t>25,95%</t>
-  </si>
-  <si>
-    <t>21,28%</t>
-  </si>
-  <si>
-    <t>30,46%</t>
-  </si>
-  <si>
-    <t>59,05%</t>
-  </si>
-  <si>
-    <t>52,61%</t>
-  </si>
-  <si>
-    <t>66,21%</t>
-  </si>
-  <si>
-    <t>52,94%</t>
-  </si>
-  <si>
-    <t>44,15%</t>
-  </si>
-  <si>
-    <t>62,19%</t>
-  </si>
-  <si>
-    <t>56,7%</t>
-  </si>
-  <si>
-    <t>51,09%</t>
-  </si>
-  <si>
-    <t>62,0%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>7,09%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>4,79%</t>
-  </si>
-  <si>
-    <t>14,28%</t>
-  </si>
-  <si>
-    <t>18,45%</t>
-  </si>
-  <si>
-    <t>19,37%</t>
-  </si>
-  <si>
-    <t>24,75%</t>
-  </si>
-  <si>
-    <t>16,3%</t>
-  </si>
-  <si>
-    <t>13,52%</t>
-  </si>
-  <si>
-    <t>19,28%</t>
-  </si>
-  <si>
-    <t>21,51%</t>
-  </si>
-  <si>
-    <t>17,55%</t>
-  </si>
-  <si>
-    <t>26,03%</t>
-  </si>
-  <si>
-    <t>23,83%</t>
-  </si>
-  <si>
-    <t>18,83%</t>
-  </si>
-  <si>
-    <t>30,01%</t>
-  </si>
-  <si>
-    <t>22,43%</t>
-  </si>
-  <si>
-    <t>25,97%</t>
-  </si>
-  <si>
-    <t>60,06%</t>
-  </si>
-  <si>
-    <t>55,02%</t>
-  </si>
-  <si>
-    <t>65,11%</t>
-  </si>
-  <si>
-    <t>51,91%</t>
-  </si>
-  <si>
-    <t>45,25%</t>
-  </si>
-  <si>
-    <t>58,22%</t>
-  </si>
-  <si>
-    <t>56,83%</t>
-  </si>
-  <si>
-    <t>52,76%</t>
-  </si>
-  <si>
-    <t>60,74%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>4,89%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>8,97%</t>
-  </si>
-  <si>
-    <t>7,72%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>13,28%</t>
-  </si>
-  <si>
-    <t>6,27%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>8,96%</t>
-  </si>
-  <si>
-    <t>12,8%</t>
-  </si>
-  <si>
-    <t>9,32%</t>
-  </si>
-  <si>
-    <t>17,23%</t>
-  </si>
-  <si>
-    <t>14,74%</t>
-  </si>
-  <si>
-    <t>9,53%</t>
-  </si>
-  <si>
-    <t>21,15%</t>
-  </si>
-  <si>
-    <t>13,57%</t>
-  </si>
-  <si>
-    <t>10,86%</t>
-  </si>
-  <si>
-    <t>17,07%</t>
-  </si>
-  <si>
-    <t>16,51%</t>
-  </si>
-  <si>
-    <t>12,46%</t>
-  </si>
-  <si>
-    <t>21,1%</t>
-  </si>
-  <si>
-    <t>24,12%</t>
-  </si>
-  <si>
-    <t>18,23%</t>
-  </si>
-  <si>
-    <t>30,89%</t>
-  </si>
-  <si>
-    <t>19,56%</t>
-  </si>
-  <si>
-    <t>16,19%</t>
-  </si>
-  <si>
-    <t>23,29%</t>
-  </si>
-  <si>
-    <t>64,1%</t>
-  </si>
-  <si>
-    <t>58,4%</t>
-  </si>
-  <si>
-    <t>69,85%</t>
-  </si>
-  <si>
-    <t>51,26%</t>
-  </si>
-  <si>
-    <t>43,24%</t>
-  </si>
-  <si>
-    <t>58,23%</t>
-  </si>
-  <si>
-    <t>58,95%</t>
-  </si>
-  <si>
-    <t>54,36%</t>
-  </si>
-  <si>
-    <t>63,25%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>6,67%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>4,65%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>5,11%</t>
-  </si>
-  <si>
-    <t>15,96%</t>
-  </si>
-  <si>
-    <t>12,54%</t>
-  </si>
-  <si>
-    <t>19,73%</t>
-  </si>
-  <si>
-    <t>16,64%</t>
-  </si>
-  <si>
-    <t>12,78%</t>
-  </si>
-  <si>
-    <t>22,31%</t>
-  </si>
-  <si>
-    <t>16,24%</t>
-  </si>
-  <si>
-    <t>13,48%</t>
-  </si>
-  <si>
-    <t>19,09%</t>
-  </si>
-  <si>
-    <t>26,8%</t>
-  </si>
-  <si>
-    <t>22,69%</t>
-  </si>
-  <si>
-    <t>31,56%</t>
-  </si>
-  <si>
-    <t>25,38%</t>
-  </si>
-  <si>
-    <t>20,3%</t>
-  </si>
-  <si>
-    <t>30,42%</t>
-  </si>
-  <si>
-    <t>26,21%</t>
-  </si>
-  <si>
-    <t>23,22%</t>
-  </si>
-  <si>
-    <t>29,85%</t>
-  </si>
-  <si>
-    <t>51,47%</t>
-  </si>
-  <si>
-    <t>46,02%</t>
-  </si>
-  <si>
-    <t>56,06%</t>
-  </si>
-  <si>
-    <t>52,86%</t>
-  </si>
-  <si>
-    <t>46,73%</t>
-  </si>
-  <si>
-    <t>58,72%</t>
-  </si>
-  <si>
-    <t>52,05%</t>
-  </si>
-  <si>
-    <t>48,01%</t>
-  </si>
-  <si>
-    <t>55,75%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>4,72%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>5,76%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>13,7%</t>
-  </si>
-  <si>
-    <t>11,87%</t>
-  </si>
-  <si>
-    <t>15,68%</t>
-  </si>
-  <si>
-    <t>16,37%</t>
-  </si>
-  <si>
-    <t>14,16%</t>
+    <t>16,52%</t>
+  </si>
+  <si>
+    <t>12,98%</t>
+  </si>
+  <si>
+    <t>10,73%</t>
+  </si>
+  <si>
+    <t>15,82%</t>
+  </si>
+  <si>
+    <t>21,86%</t>
+  </si>
+  <si>
+    <t>30,82%</t>
+  </si>
+  <si>
+    <t>24,43%</t>
+  </si>
+  <si>
+    <t>20,14%</t>
+  </si>
+  <si>
+    <t>29,54%</t>
+  </si>
+  <si>
+    <t>25,52%</t>
+  </si>
+  <si>
+    <t>22,16%</t>
+  </si>
+  <si>
+    <t>28,76%</t>
+  </si>
+  <si>
+    <t>54,72%</t>
+  </si>
+  <si>
+    <t>49,49%</t>
+  </si>
+  <si>
+    <t>59,32%</t>
+  </si>
+  <si>
+    <t>55,16%</t>
+  </si>
+  <si>
+    <t>49,66%</t>
+  </si>
+  <si>
+    <t>60,32%</t>
+  </si>
+  <si>
+    <t>54,92%</t>
+  </si>
+  <si>
+    <t>51,01%</t>
+  </si>
+  <si>
+    <t>58,52%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>5,27%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>6,61%</t>
+  </si>
+  <si>
+    <t>5,68%</t>
+  </si>
+  <si>
+    <t>8,85%</t>
+  </si>
+  <si>
+    <t>7,12%</t>
+  </si>
+  <si>
+    <t>20,12%</t>
+  </si>
+  <si>
+    <t>18,09%</t>
+  </si>
+  <si>
+    <t>22,57%</t>
+  </si>
+  <si>
+    <t>17,81%</t>
+  </si>
+  <si>
+    <t>15,62%</t>
+  </si>
+  <si>
+    <t>20,46%</t>
   </si>
   <si>
     <t>19,15%</t>
   </si>
   <si>
-    <t>14,76%</t>
-  </si>
-  <si>
-    <t>13,37%</t>
-  </si>
-  <si>
-    <t>22,74%</t>
-  </si>
-  <si>
-    <t>20,4%</t>
-  </si>
-  <si>
-    <t>25,08%</t>
-  </si>
-  <si>
-    <t>25,32%</t>
-  </si>
-  <si>
-    <t>22,29%</t>
-  </si>
-  <si>
-    <t>28,37%</t>
-  </si>
-  <si>
-    <t>23,78%</t>
-  </si>
-  <si>
-    <t>21,98%</t>
-  </si>
-  <si>
-    <t>25,64%</t>
-  </si>
-  <si>
-    <t>58,41%</t>
-  </si>
-  <si>
-    <t>55,63%</t>
-  </si>
-  <si>
-    <t>61,22%</t>
-  </si>
-  <si>
-    <t>52,18%</t>
-  </si>
-  <si>
-    <t>48,57%</t>
-  </si>
-  <si>
-    <t>55,41%</t>
-  </si>
-  <si>
-    <t>55,92%</t>
-  </si>
-  <si>
-    <t>53,76%</t>
-  </si>
-  <si>
-    <t>58,15%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si se sienten comprometidos con su profesión en 2015 (Tasa respuesta: 35,56%)</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>19,85%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>8,86%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>12,72%</t>
-  </si>
-  <si>
-    <t>6,17%</t>
-  </si>
-  <si>
-    <t>21,07%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>10,29%</t>
-  </si>
-  <si>
-    <t>13,6%</t>
-  </si>
-  <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>25,28%</t>
-  </si>
-  <si>
-    <t>24,91%</t>
-  </si>
-  <si>
-    <t>12,05%</t>
-  </si>
-  <si>
-    <t>42,85%</t>
-  </si>
-  <si>
-    <t>18,18%</t>
-  </si>
-  <si>
-    <t>10,42%</t>
-  </si>
-  <si>
-    <t>27,9%</t>
-  </si>
-  <si>
-    <t>33,8%</t>
-  </si>
-  <si>
-    <t>20,36%</t>
-  </si>
-  <si>
-    <t>48,26%</t>
-  </si>
-  <si>
-    <t>29,7%</t>
-  </si>
-  <si>
-    <t>15,52%</t>
-  </si>
-  <si>
-    <t>46,53%</t>
-  </si>
-  <si>
-    <t>32,14%</t>
-  </si>
-  <si>
-    <t>22,46%</t>
-  </si>
-  <si>
-    <t>43,9%</t>
-  </si>
-  <si>
-    <t>47,96%</t>
-  </si>
-  <si>
-    <t>33,52%</t>
-  </si>
-  <si>
-    <t>64,11%</t>
-  </si>
-  <si>
-    <t>35,98%</t>
-  </si>
-  <si>
-    <t>20,61%</t>
-  </si>
-  <si>
-    <t>54,98%</t>
-  </si>
-  <si>
-    <t>43,12%</t>
-  </si>
-  <si>
-    <t>32,67%</t>
-  </si>
-  <si>
-    <t>54,66%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>6,16%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>6,96%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>5,02%</t>
-  </si>
-  <si>
-    <t>8,7%</t>
-  </si>
-  <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>13,39%</t>
-  </si>
-  <si>
-    <t>7,26%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>12,3%</t>
-  </si>
-  <si>
-    <t>8,11%</t>
-  </si>
-  <si>
-    <t>5,59%</t>
-  </si>
-  <si>
-    <t>11,66%</t>
-  </si>
-  <si>
-    <t>16,66%</t>
-  </si>
-  <si>
-    <t>11,73%</t>
-  </si>
-  <si>
-    <t>22,83%</t>
-  </si>
-  <si>
-    <t>17,79%</t>
-  </si>
-  <si>
-    <t>24,99%</t>
-  </si>
-  <si>
-    <t>17,12%</t>
-  </si>
-  <si>
-    <t>13,63%</t>
-  </si>
-  <si>
-    <t>21,41%</t>
-  </si>
-  <si>
-    <t>30,31%</t>
-  </si>
-  <si>
-    <t>24,24%</t>
-  </si>
-  <si>
-    <t>37,04%</t>
-  </si>
-  <si>
-    <t>35,65%</t>
-  </si>
-  <si>
-    <t>28,04%</t>
-  </si>
-  <si>
-    <t>44,31%</t>
-  </si>
-  <si>
-    <t>32,49%</t>
-  </si>
-  <si>
-    <t>27,79%</t>
-  </si>
-  <si>
-    <t>37,95%</t>
-  </si>
-  <si>
-    <t>41,56%</t>
-  </si>
-  <si>
-    <t>34,63%</t>
-  </si>
-  <si>
-    <t>48,56%</t>
-  </si>
-  <si>
-    <t>36,85%</t>
-  </si>
-  <si>
-    <t>29,64%</t>
-  </si>
-  <si>
-    <t>45,57%</t>
-  </si>
-  <si>
-    <t>39,64%</t>
-  </si>
-  <si>
-    <t>34,08%</t>
-  </si>
-  <si>
-    <t>44,63%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>4,94%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>7,2%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>11,75%</t>
-  </si>
-  <si>
-    <t>4,92%</t>
-  </si>
-  <si>
-    <t>6,97%</t>
-  </si>
-  <si>
-    <t>19,52%</t>
-  </si>
-  <si>
-    <t>24,21%</t>
-  </si>
-  <si>
-    <t>16,6%</t>
-  </si>
-  <si>
-    <t>11,84%</t>
-  </si>
-  <si>
-    <t>18,35%</t>
-  </si>
-  <si>
-    <t>15,65%</t>
-  </si>
-  <si>
-    <t>21,27%</t>
-  </si>
-  <si>
-    <t>27,54%</t>
-  </si>
-  <si>
-    <t>23,6%</t>
-  </si>
-  <si>
-    <t>32,33%</t>
-  </si>
-  <si>
-    <t>29,42%</t>
-  </si>
-  <si>
-    <t>24,54%</t>
-  </si>
-  <si>
-    <t>35,19%</t>
-  </si>
-  <si>
-    <t>28,29%</t>
-  </si>
-  <si>
-    <t>24,9%</t>
-  </si>
-  <si>
-    <t>31,66%</t>
-  </si>
-  <si>
-    <t>47,78%</t>
-  </si>
-  <si>
-    <t>42,49%</t>
-  </si>
-  <si>
-    <t>52,69%</t>
-  </si>
-  <si>
-    <t>44,65%</t>
-  </si>
-  <si>
-    <t>38,88%</t>
-  </si>
-  <si>
-    <t>50,91%</t>
-  </si>
-  <si>
-    <t>46,54%</t>
-  </si>
-  <si>
-    <t>42,36%</t>
-  </si>
-  <si>
-    <t>50,41%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>5,18%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>8,41%</t>
-  </si>
-  <si>
-    <t>5,73%</t>
-  </si>
-  <si>
-    <t>12,07%</t>
-  </si>
-  <si>
-    <t>10,33%</t>
-  </si>
-  <si>
-    <t>7,14%</t>
-  </si>
-  <si>
-    <t>14,64%</t>
-  </si>
-  <si>
-    <t>7,01%</t>
-  </si>
-  <si>
-    <t>11,99%</t>
-  </si>
-  <si>
-    <t>31,06%</t>
-  </si>
-  <si>
-    <t>26,31%</t>
-  </si>
-  <si>
-    <t>35,96%</t>
-  </si>
-  <si>
-    <t>24,5%</t>
-  </si>
-  <si>
-    <t>29,63%</t>
-  </si>
-  <si>
-    <t>28,27%</t>
-  </si>
-  <si>
-    <t>24,49%</t>
-  </si>
-  <si>
-    <t>22,73%</t>
-  </si>
-  <si>
-    <t>18,28%</t>
-  </si>
-  <si>
-    <t>27,95%</t>
-  </si>
-  <si>
-    <t>27,81%</t>
-  </si>
-  <si>
-    <t>22,26%</t>
-  </si>
-  <si>
-    <t>32,81%</t>
-  </si>
-  <si>
-    <t>28,83%</t>
-  </si>
-  <si>
-    <t>33,9%</t>
-  </si>
-  <si>
-    <t>29,38%</t>
-  </si>
-  <si>
-    <t>39,18%</t>
-  </si>
-  <si>
-    <t>34,9%</t>
-  </si>
-  <si>
-    <t>29,3%</t>
-  </si>
-  <si>
-    <t>41,25%</t>
-  </si>
-  <si>
-    <t>34,33%</t>
-  </si>
-  <si>
-    <t>30,17%</t>
-  </si>
-  <si>
-    <t>38,06%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>5,89%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>7,5%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>5,25%</t>
-  </si>
-  <si>
-    <t>13,26%</t>
-  </si>
-  <si>
-    <t>10,04%</t>
-  </si>
-  <si>
-    <t>12,62%</t>
-  </si>
-  <si>
-    <t>9,33%</t>
-  </si>
-  <si>
-    <t>16,85%</t>
-  </si>
-  <si>
-    <t>12,98%</t>
-  </si>
-  <si>
-    <t>10,72%</t>
-  </si>
-  <si>
-    <t>15,7%</t>
-  </si>
-  <si>
-    <t>26,41%</t>
-  </si>
-  <si>
-    <t>31,22%</t>
-  </si>
-  <si>
-    <t>24,43%</t>
-  </si>
-  <si>
-    <t>20,04%</t>
-  </si>
-  <si>
-    <t>29,96%</t>
-  </si>
-  <si>
-    <t>25,52%</t>
-  </si>
-  <si>
-    <t>22,01%</t>
-  </si>
-  <si>
-    <t>28,85%</t>
-  </si>
-  <si>
-    <t>54,72%</t>
-  </si>
-  <si>
-    <t>49,24%</t>
-  </si>
-  <si>
-    <t>59,41%</t>
-  </si>
-  <si>
-    <t>55,16%</t>
-  </si>
-  <si>
-    <t>49,51%</t>
-  </si>
-  <si>
-    <t>60,67%</t>
-  </si>
-  <si>
-    <t>54,92%</t>
-  </si>
-  <si>
-    <t>51,24%</t>
-  </si>
-  <si>
-    <t>58,77%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>5,27%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>6,66%</t>
-  </si>
-  <si>
-    <t>5,81%</t>
-  </si>
-  <si>
-    <t>8,92%</t>
-  </si>
-  <si>
-    <t>6,06%</t>
-  </si>
-  <si>
-    <t>5,19%</t>
-  </si>
-  <si>
-    <t>7,11%</t>
-  </si>
-  <si>
-    <t>20,12%</t>
-  </si>
-  <si>
-    <t>18,07%</t>
-  </si>
-  <si>
-    <t>22,33%</t>
-  </si>
-  <si>
-    <t>17,81%</t>
-  </si>
-  <si>
-    <t>15,54%</t>
-  </si>
-  <si>
-    <t>20,09%</t>
-  </si>
-  <si>
-    <t>17,42%</t>
-  </si>
-  <si>
-    <t>20,7%</t>
+    <t>17,43%</t>
+  </si>
+  <si>
+    <t>20,75%</t>
   </si>
   <si>
     <t>26,57%</t>
   </si>
   <si>
-    <t>24,1%</t>
-  </si>
-  <si>
-    <t>28,99%</t>
-  </si>
-  <si>
-    <t>25,34%</t>
-  </si>
-  <si>
-    <t>31,13%</t>
+    <t>29,03%</t>
+  </si>
+  <si>
+    <t>25,45%</t>
+  </si>
+  <si>
+    <t>30,67%</t>
   </si>
   <si>
     <t>27,29%</t>
   </si>
   <si>
-    <t>25,6%</t>
-  </si>
-  <si>
-    <t>29,14%</t>
+    <t>25,62%</t>
+  </si>
+  <si>
+    <t>29,07%</t>
   </si>
   <si>
     <t>45,32%</t>
   </si>
   <si>
-    <t>42,53%</t>
-  </si>
-  <si>
-    <t>48,0%</t>
+    <t>42,5%</t>
+  </si>
+  <si>
+    <t>47,83%</t>
   </si>
   <si>
     <t>44,12%</t>
   </si>
   <si>
-    <t>41,02%</t>
-  </si>
-  <si>
-    <t>47,25%</t>
+    <t>41,28%</t>
+  </si>
+  <si>
+    <t>47,12%</t>
   </si>
   <si>
     <t>44,82%</t>
   </si>
   <si>
-    <t>42,74%</t>
-  </si>
-  <si>
-    <t>46,82%</t>
+    <t>42,76%</t>
+  </si>
+  <si>
+    <t>46,71%</t>
   </si>
 </sst>
 </file>
@@ -1978,7 +1984,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B6F0B09-D82D-4F9C-9728-22545E44481E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A82E1E73-1655-495E-9449-ECA5ED568A83}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2548,7 +2554,7 @@
         <v>79</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>80</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2563,13 +2569,13 @@
         <v>54739</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="G13" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>83</v>
       </c>
       <c r="H13" s="7">
         <v>36</v>
@@ -2578,13 +2584,13 @@
         <v>36947</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>86</v>
       </c>
       <c r="M13" s="7">
         <v>87</v>
@@ -2593,13 +2599,13 @@
         <v>91686</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>88</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2614,13 +2620,13 @@
         <v>128259</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>91</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>92</v>
       </c>
       <c r="H14" s="7">
         <v>66</v>
@@ -2629,13 +2635,13 @@
         <v>72049</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>94</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>95</v>
       </c>
       <c r="M14" s="7">
         <v>189</v>
@@ -2644,13 +2650,13 @@
         <v>200308</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>97</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2706,7 +2712,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2718,13 +2724,13 @@
         <v>6073</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>102</v>
       </c>
       <c r="H16" s="7">
         <v>3</v>
@@ -2733,13 +2739,13 @@
         <v>3374</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>105</v>
       </c>
       <c r="M16" s="7">
         <v>9</v>
@@ -2748,13 +2754,13 @@
         <v>9447</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>107</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2769,13 +2775,13 @@
         <v>10947</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>109</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>111</v>
       </c>
       <c r="H17" s="7">
         <v>8</v>
@@ -2787,10 +2793,10 @@
         <v>66</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="M17" s="7">
         <v>18</v>
@@ -2799,13 +2805,13 @@
         <v>20792</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2820,13 +2826,13 @@
         <v>58665</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="G18" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>118</v>
       </c>
       <c r="H18" s="7">
         <v>49</v>
@@ -2835,10 +2841,10 @@
         <v>52404</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="K18" s="7" t="s">
         <v>119</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>75</v>
       </c>
       <c r="L18" s="7" t="s">
         <v>120</v>
@@ -2904,10 +2910,10 @@
         <v>130</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>119</v>
+        <v>131</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2922,13 +2928,13 @@
         <v>246675</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="H20" s="7">
         <v>126</v>
@@ -2937,7 +2943,7 @@
         <v>140441</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>135</v>
+        <v>90</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>136</v>
@@ -3041,13 +3047,13 @@
         <v>4614</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>31</v>
+        <v>145</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="M22" s="7">
         <v>8</v>
@@ -3056,13 +3062,13 @@
         <v>8731</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3077,13 +3083,13 @@
         <v>16940</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="H23" s="7">
         <v>13</v>
@@ -3092,13 +3098,13 @@
         <v>16478</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="M23" s="7">
         <v>26</v>
@@ -3107,13 +3113,13 @@
         <v>33417</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3128,13 +3134,13 @@
         <v>40870</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="H24" s="7">
         <v>27</v>
@@ -3143,13 +3149,13 @@
         <v>31461</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="M24" s="7">
         <v>65</v>
@@ -3158,13 +3164,13 @@
         <v>72331</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3179,13 +3185,13 @@
         <v>52743</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="H25" s="7">
         <v>46</v>
@@ -3194,13 +3200,13 @@
         <v>51494</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="M25" s="7">
         <v>95</v>
@@ -3209,13 +3215,13 @@
         <v>104237</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3230,13 +3236,13 @@
         <v>204744</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="H26" s="7">
         <v>101</v>
@@ -3245,13 +3251,13 @@
         <v>109407</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="M26" s="7">
         <v>287</v>
@@ -3260,13 +3266,13 @@
         <v>314150</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3322,7 +3328,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -3334,13 +3340,13 @@
         <v>6683</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="H28" s="7">
         <v>8</v>
@@ -3349,10 +3355,10 @@
         <v>7581</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>191</v>
+        <v>70</v>
       </c>
       <c r="L28" s="7" t="s">
         <v>192</v>
@@ -3388,10 +3394,10 @@
         <v>196</v>
       </c>
       <c r="F29" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>197</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>198</v>
       </c>
       <c r="H29" s="7">
         <v>8</v>
@@ -3400,13 +3406,13 @@
         <v>7766</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>199</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>200</v>
       </c>
       <c r="M29" s="7">
         <v>25</v>
@@ -3415,13 +3421,13 @@
         <v>25242</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>201</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3436,13 +3442,13 @@
         <v>66824</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="G30" s="7" t="s">
         <v>204</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>206</v>
       </c>
       <c r="H30" s="7">
         <v>46</v>
@@ -3451,13 +3457,13 @@
         <v>49816</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="L30" s="7" t="s">
         <v>207</v>
-      </c>
-      <c r="K30" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>209</v>
       </c>
       <c r="M30" s="7">
         <v>109</v>
@@ -3466,13 +3472,13 @@
         <v>116640</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="P30" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="Q30" s="7" t="s">
         <v>210</v>
-      </c>
-      <c r="P30" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -3487,13 +3493,13 @@
         <v>112216</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>214</v>
+        <v>130</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="H31" s="7">
         <v>75</v>
@@ -3502,13 +3508,13 @@
         <v>75994</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="M31" s="7">
         <v>187</v>
@@ -3517,13 +3523,13 @@
         <v>188210</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -3538,13 +3544,13 @@
         <v>215488</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="H32" s="7">
         <v>149</v>
@@ -3553,13 +3559,13 @@
         <v>158298</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="M32" s="7">
         <v>355</v>
@@ -3568,13 +3574,13 @@
         <v>373786</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3645,10 +3651,10 @@
         <v>58</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="H34" s="7">
         <v>17</v>
@@ -3657,13 +3663,13 @@
         <v>17738</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>115</v>
+        <v>230</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>194</v>
+        <v>231</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>151</v>
+        <v>232</v>
       </c>
       <c r="M34" s="7">
         <v>39</v>
@@ -3675,10 +3681,10 @@
         <v>233</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>70</v>
+        <v>234</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>202</v>
+        <v>235</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -3693,13 +3699,13 @@
         <v>50441</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>235</v>
+        <v>108</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="H35" s="7">
         <v>34</v>
@@ -3708,13 +3714,13 @@
         <v>40125</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="M35" s="7">
         <v>78</v>
@@ -3723,13 +3729,13 @@
         <v>90567</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -3744,13 +3750,13 @@
         <v>194189</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="H36" s="7">
         <v>143</v>
@@ -3759,13 +3765,13 @@
         <v>154624</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="M36" s="7">
         <v>326</v>
@@ -3774,13 +3780,13 @@
         <v>348813</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>121</v>
+        <v>169</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -3795,10 +3801,10 @@
         <v>322453</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>252</v>
+        <v>214</v>
       </c>
       <c r="G37" s="7" t="s">
         <v>253</v>
@@ -3828,10 +3834,10 @@
         <v>257</v>
       </c>
       <c r="P37" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q37" s="7" t="s">
         <v>258</v>
-      </c>
-      <c r="Q37" s="7" t="s">
-        <v>259</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3846,13 +3852,13 @@
         <v>828095</v>
       </c>
       <c r="E38" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="F38" s="7" t="s">
         <v>260</v>
       </c>
-      <c r="F38" s="7" t="s">
+      <c r="G38" s="7" t="s">
         <v>261</v>
-      </c>
-      <c r="G38" s="7" t="s">
-        <v>262</v>
       </c>
       <c r="H38" s="7">
         <v>453</v>
@@ -3861,13 +3867,13 @@
         <v>493001</v>
       </c>
       <c r="J38" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="K38" s="7" t="s">
         <v>263</v>
       </c>
-      <c r="K38" s="7" t="s">
+      <c r="L38" s="7" t="s">
         <v>264</v>
-      </c>
-      <c r="L38" s="7" t="s">
-        <v>265</v>
       </c>
       <c r="M38" s="7">
         <v>1226</v>
@@ -3876,13 +3882,13 @@
         <v>1321096</v>
       </c>
       <c r="O38" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="P38" s="7" t="s">
         <v>266</v>
       </c>
-      <c r="P38" s="7" t="s">
-        <v>267</v>
-      </c>
       <c r="Q38" s="7" t="s">
-        <v>268</v>
+        <v>179</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -3938,7 +3944,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
   </sheetData>
@@ -3959,7 +3965,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D2CDC31-3F4C-40DD-A239-91152A3322C5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF1EAB46-7A68-4419-AD2B-96E66A30F7AF}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3976,7 +3982,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4083,13 +4089,13 @@
         <v>1108</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>169</v>
+        <v>270</v>
       </c>
       <c r="H4" s="7">
         <v>1</v>
@@ -4098,13 +4104,13 @@
         <v>968</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="M4" s="7">
         <v>2</v>
@@ -4113,13 +4119,13 @@
         <v>2076</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4134,13 +4140,13 @@
         <v>933</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="H5" s="7">
         <v>2</v>
@@ -4149,13 +4155,13 @@
         <v>1843</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="M5" s="7">
         <v>3</v>
@@ -4164,13 +4170,13 @@
         <v>2776</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="P5" s="7" t="s">
         <v>280</v>
       </c>
-      <c r="P5" s="7" t="s">
+      <c r="Q5" s="7" t="s">
         <v>281</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>282</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4185,13 +4191,13 @@
         <v>5988</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="F6" s="7" t="s">
         <v>283</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="G6" s="7" t="s">
         <v>284</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>285</v>
       </c>
       <c r="H6" s="7">
         <v>8</v>
@@ -4200,13 +4206,13 @@
         <v>7445</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="K6" s="7" t="s">
         <v>286</v>
       </c>
-      <c r="K6" s="7" t="s">
+      <c r="L6" s="7" t="s">
         <v>287</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>288</v>
       </c>
       <c r="M6" s="7">
         <v>14</v>
@@ -4215,13 +4221,13 @@
         <v>13434</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="P6" s="7" t="s">
         <v>289</v>
       </c>
-      <c r="P6" s="7" t="s">
+      <c r="Q6" s="7" t="s">
         <v>290</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>291</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4236,13 +4242,13 @@
         <v>14878</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="F7" s="7" t="s">
         <v>292</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="G7" s="7" t="s">
         <v>293</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>294</v>
       </c>
       <c r="H7" s="7">
         <v>10</v>
@@ -4251,13 +4257,13 @@
         <v>8878</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>295</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>296</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>297</v>
       </c>
       <c r="M7" s="7">
         <v>25</v>
@@ -4266,13 +4272,13 @@
         <v>23757</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>298</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>299</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>300</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4287,13 +4293,13 @@
         <v>21113</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>301</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>302</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>303</v>
       </c>
       <c r="H8" s="7">
         <v>11</v>
@@ -4302,13 +4308,13 @@
         <v>10756</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>304</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>305</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>306</v>
       </c>
       <c r="M8" s="7">
         <v>31</v>
@@ -4317,13 +4323,13 @@
         <v>31869</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>307</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>308</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>309</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4391,13 +4397,13 @@
         <v>5521</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>310</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>311</v>
       </c>
       <c r="H10" s="7">
         <v>3</v>
@@ -4406,10 +4412,10 @@
         <v>3357</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>312</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>188</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>313</v>
@@ -4421,13 +4427,13 @@
         <v>8877</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>197</v>
+        <v>314</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4442,10 +4448,10 @@
         <v>17332</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>317</v>
+        <v>201</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>318</v>
@@ -4511,10 +4517,10 @@
         <v>328</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>287</v>
+        <v>329</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>329</v>
+        <v>253</v>
       </c>
       <c r="M12" s="7">
         <v>56</v>
@@ -4687,7 +4693,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4729,10 +4735,10 @@
         <v>13088</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>357</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>16</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>358</v>
@@ -4780,13 +4786,13 @@
         <v>33842</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>365</v>
+        <v>356</v>
       </c>
       <c r="P17" s="7" t="s">
         <v>19</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4801,13 +4807,13 @@
         <v>80801</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="G18" s="7" t="s">
         <v>367</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>368</v>
       </c>
       <c r="H18" s="7">
         <v>47</v>
@@ -4816,13 +4822,13 @@
         <v>45436</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="K18" s="7" t="s">
         <v>369</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>370</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>279</v>
       </c>
       <c r="M18" s="7">
         <v>120</v>
@@ -5007,13 +5013,13 @@
         <v>14172</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>320</v>
+        <v>392</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>392</v>
+        <v>55</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>278</v>
+        <v>393</v>
       </c>
       <c r="H22" s="7">
         <v>6</v>
@@ -5022,13 +5028,13 @@
         <v>6637</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="M22" s="7">
         <v>19</v>
@@ -5037,13 +5043,13 @@
         <v>20809</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>397</v>
+        <v>354</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>203</v>
+        <v>398</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5058,13 +5064,13 @@
         <v>30609</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="H23" s="7">
         <v>28</v>
@@ -5073,13 +5079,13 @@
         <v>27956</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="M23" s="7">
         <v>54</v>
@@ -5088,13 +5094,13 @@
         <v>58566</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>68</v>
+        <v>405</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5109,13 +5115,13 @@
         <v>113018</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="H24" s="7">
         <v>66</v>
@@ -5124,13 +5130,13 @@
         <v>66293</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>119</v>
+        <v>412</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="M24" s="7">
         <v>165</v>
@@ -5139,13 +5145,13 @@
         <v>179310</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>40</v>
+        <v>296</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5160,13 +5166,13 @@
         <v>82693</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="H25" s="7">
         <v>73</v>
@@ -5175,13 +5181,13 @@
         <v>75242</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="M25" s="7">
         <v>148</v>
@@ -5190,13 +5196,13 @@
         <v>157935</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>381</v>
+        <v>422</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>41</v>
+        <v>423</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>419</v>
+        <v>424</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5211,13 +5217,13 @@
         <v>123328</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>420</v>
+        <v>425</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>421</v>
+        <v>426</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>422</v>
+        <v>427</v>
       </c>
       <c r="H26" s="7">
         <v>92</v>
@@ -5226,13 +5232,13 @@
         <v>94430</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>423</v>
+        <v>428</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>424</v>
+        <v>429</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>425</v>
+        <v>36</v>
       </c>
       <c r="M26" s="7">
         <v>206</v>
@@ -5241,13 +5247,13 @@
         <v>217758</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>428</v>
+        <v>432</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5303,7 +5309,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -5315,13 +5321,13 @@
         <v>10591</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>197</v>
+        <v>314</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>429</v>
+        <v>102</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="H28" s="7">
         <v>10</v>
@@ -5330,13 +5336,13 @@
         <v>10702</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>144</v>
+        <v>434</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="M28" s="7">
         <v>20</v>
@@ -5345,13 +5351,13 @@
         <v>21292</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>433</v>
+        <v>239</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5366,13 +5372,13 @@
         <v>11918</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>238</v>
+        <v>439</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>436</v>
+        <v>440</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>437</v>
+        <v>441</v>
       </c>
       <c r="H29" s="7">
         <v>14</v>
@@ -5381,13 +5387,13 @@
         <v>14611</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>438</v>
+        <v>442</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>439</v>
+        <v>308</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>440</v>
+        <v>443</v>
       </c>
       <c r="M29" s="7">
         <v>25</v>
@@ -5396,13 +5402,13 @@
         <v>26529</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>441</v>
+        <v>444</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>442</v>
+        <v>394</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5417,13 +5423,13 @@
         <v>53202</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>330</v>
+        <v>448</v>
       </c>
       <c r="H30" s="7">
         <v>40</v>
@@ -5432,13 +5438,13 @@
         <v>41089</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="M30" s="7">
         <v>92</v>
@@ -5447,13 +5453,13 @@
         <v>94291</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>451</v>
+        <v>454</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -5468,13 +5474,13 @@
         <v>105936</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>452</v>
+        <v>409</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>299</v>
+        <v>455</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="H31" s="7">
         <v>76</v>
@@ -5483,13 +5489,13 @@
         <v>79526</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="M31" s="7">
         <v>181</v>
@@ -5498,13 +5504,13 @@
         <v>185462</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>459</v>
+        <v>462</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -5519,13 +5525,13 @@
         <v>219524</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>460</v>
+        <v>463</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="H32" s="7">
         <v>167</v>
@@ -5534,13 +5540,13 @@
         <v>179546</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>463</v>
+        <v>466</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>464</v>
+        <v>467</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="M32" s="7">
         <v>382</v>
@@ -5549,13 +5555,13 @@
         <v>399070</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -5623,13 +5629,13 @@
         <v>38639</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>470</v>
+        <v>473</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>471</v>
+        <v>474</v>
       </c>
       <c r="H34" s="7">
         <v>25</v>
@@ -5638,13 +5644,13 @@
         <v>27505</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>473</v>
+        <v>476</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>474</v>
+        <v>477</v>
       </c>
       <c r="M34" s="7">
         <v>60</v>
@@ -5653,13 +5659,13 @@
         <v>66143</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>475</v>
+        <v>478</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>276</v>
+        <v>479</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>476</v>
+        <v>480</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -5674,13 +5680,13 @@
         <v>74934</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>477</v>
+        <v>481</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>479</v>
+        <v>483</v>
       </c>
       <c r="H35" s="7">
         <v>74</v>
@@ -5689,13 +5695,13 @@
         <v>74096</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>402</v>
+        <v>23</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>480</v>
+        <v>484</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>481</v>
+        <v>485</v>
       </c>
       <c r="M35" s="7">
         <v>142</v>
@@ -5704,13 +5710,13 @@
         <v>149030</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>482</v>
+        <v>65</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>483</v>
+        <v>316</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -5725,13 +5731,13 @@
         <v>286215</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="H36" s="7">
         <v>187</v>
@@ -5740,13 +5746,13 @@
         <v>184719</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="M36" s="7">
         <v>447</v>
@@ -5755,13 +5761,13 @@
         <v>470934</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>248</v>
+        <v>493</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>492</v>
+        <v>495</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -5776,13 +5782,13 @@
         <v>377909</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>493</v>
+        <v>496</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>494</v>
+        <v>378</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="H37" s="7">
         <v>289</v>
@@ -5791,13 +5797,13 @@
         <v>293214</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="M37" s="7">
         <v>648</v>
@@ -5806,13 +5812,13 @@
         <v>671123</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -5827,13 +5833,13 @@
         <v>644625</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="H38" s="7">
         <v>438</v>
@@ -5842,13 +5848,13 @@
         <v>457638</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="M38" s="7">
         <v>1039</v>
@@ -5857,13 +5863,13 @@
         <v>1102263</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -5919,7 +5925,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P6714-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P6714-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E35D1A4E-6213-4CC0-9823-095C61F485EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{75D2BA73-C70E-4B7B-806A-4FEB34C0C533}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{D924A60E-36FA-4F94-ACDB-E180AD86825E}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{2FC0CCFA-CDD7-4D75-BF8D-0CC80C6EF2EA}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="772" uniqueCount="512">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="772" uniqueCount="516">
   <si>
     <t>Población según si se sienten comprometidos con su profesión en 2012 (Tasa respuesta: 33,87%)</t>
   </si>
@@ -78,1501 +78,1513 @@
     <t>0,0%</t>
   </si>
   <si>
+    <t>7,67%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>8,27%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>4,84%</t>
+  </si>
+  <si>
+    <t>Solo alguna vez</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>21,77%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>7,8%</t>
+  </si>
+  <si>
+    <t>Algunas veces</t>
+  </si>
+  <si>
+    <t>7,03%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>16,06%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>19,63%</t>
+  </si>
+  <si>
+    <t>5,99%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>12,25%</t>
+  </si>
+  <si>
+    <t>Muchas veces</t>
+  </si>
+  <si>
+    <t>27,88%</t>
+  </si>
+  <si>
+    <t>17,76%</t>
+  </si>
+  <si>
+    <t>41,36%</t>
+  </si>
+  <si>
+    <t>41,0%</t>
+  </si>
+  <si>
+    <t>21,63%</t>
+  </si>
+  <si>
+    <t>61,14%</t>
+  </si>
+  <si>
+    <t>32,18%</t>
+  </si>
+  <si>
+    <t>21,91%</t>
+  </si>
+  <si>
+    <t>42,91%</t>
+  </si>
+  <si>
+    <t>Siempre</t>
+  </si>
+  <si>
+    <t>63,65%</t>
+  </si>
+  <si>
+    <t>51,37%</t>
+  </si>
+  <si>
+    <t>75,38%</t>
+  </si>
+  <si>
+    <t>50,84%</t>
+  </si>
+  <si>
+    <t>31,26%</t>
+  </si>
+  <si>
+    <t>72,79%</t>
+  </si>
+  <si>
+    <t>59,46%</t>
+  </si>
+  <si>
+    <t>47,38%</t>
+  </si>
+  <si>
+    <t>70,28%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2-10.000 hab</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>5,1%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>5,53%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>6,09%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>8,95%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>11,14%</t>
+  </si>
+  <si>
+    <t>7,09%</t>
+  </si>
+  <si>
+    <t>16,43%</t>
+  </si>
+  <si>
+    <t>14,67%</t>
+  </si>
+  <si>
+    <t>9,63%</t>
+  </si>
+  <si>
+    <t>22,15%</t>
+  </si>
+  <si>
+    <t>12,5%</t>
+  </si>
+  <si>
+    <t>9,27%</t>
+  </si>
+  <si>
+    <t>16,68%</t>
+  </si>
+  <si>
+    <t>25,2%</t>
+  </si>
+  <si>
+    <t>19,56%</t>
+  </si>
+  <si>
+    <t>31,97%</t>
+  </si>
+  <si>
+    <t>27,15%</t>
+  </si>
+  <si>
+    <t>19,97%</t>
+  </si>
+  <si>
+    <t>36,53%</t>
+  </si>
+  <si>
+    <t>25,95%</t>
+  </si>
+  <si>
+    <t>30,62%</t>
+  </si>
+  <si>
+    <t>59,05%</t>
+  </si>
+  <si>
+    <t>52,24%</t>
+  </si>
+  <si>
+    <t>66,33%</t>
+  </si>
+  <si>
+    <t>52,94%</t>
+  </si>
+  <si>
+    <t>43,0%</t>
+  </si>
+  <si>
+    <t>61,22%</t>
+  </si>
+  <si>
+    <t>56,7%</t>
+  </si>
+  <si>
+    <t>50,99%</t>
+  </si>
+  <si>
+    <t>61,75%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>6,89%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>4,79%</t>
+  </si>
+  <si>
+    <t>14,28%</t>
+  </si>
+  <si>
+    <t>11,0%</t>
+  </si>
+  <si>
+    <t>17,96%</t>
+  </si>
+  <si>
+    <t>19,37%</t>
+  </si>
+  <si>
+    <t>14,85%</t>
+  </si>
+  <si>
+    <t>24,38%</t>
+  </si>
+  <si>
+    <t>16,3%</t>
+  </si>
+  <si>
+    <t>13,5%</t>
+  </si>
+  <si>
+    <t>19,49%</t>
+  </si>
+  <si>
+    <t>21,51%</t>
+  </si>
+  <si>
+    <t>17,5%</t>
+  </si>
+  <si>
+    <t>26,27%</t>
+  </si>
+  <si>
+    <t>23,83%</t>
+  </si>
+  <si>
+    <t>18,46%</t>
+  </si>
+  <si>
+    <t>29,64%</t>
+  </si>
+  <si>
+    <t>22,43%</t>
+  </si>
+  <si>
+    <t>19,73%</t>
+  </si>
+  <si>
+    <t>26,14%</t>
+  </si>
+  <si>
+    <t>60,06%</t>
+  </si>
+  <si>
+    <t>54,67%</t>
+  </si>
+  <si>
+    <t>65,03%</t>
+  </si>
+  <si>
+    <t>51,91%</t>
+  </si>
+  <si>
+    <t>45,67%</t>
+  </si>
+  <si>
+    <t>58,07%</t>
+  </si>
+  <si>
+    <t>56,83%</t>
+  </si>
+  <si>
+    <t>53,03%</t>
+  </si>
+  <si>
+    <t>60,73%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>5,46%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>9,07%</t>
+  </si>
+  <si>
+    <t>7,72%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>13,4%</t>
+  </si>
+  <si>
+    <t>6,27%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>9,03%</t>
+  </si>
+  <si>
+    <t>12,8%</t>
+  </si>
+  <si>
+    <t>9,44%</t>
+  </si>
+  <si>
+    <t>17,12%</t>
+  </si>
+  <si>
+    <t>14,74%</t>
+  </si>
+  <si>
+    <t>10,23%</t>
+  </si>
+  <si>
+    <t>21,11%</t>
+  </si>
+  <si>
+    <t>13,57%</t>
+  </si>
+  <si>
+    <t>10,59%</t>
+  </si>
+  <si>
+    <t>16,66%</t>
+  </si>
+  <si>
+    <t>16,51%</t>
+  </si>
+  <si>
+    <t>12,16%</t>
+  </si>
+  <si>
+    <t>21,27%</t>
+  </si>
+  <si>
+    <t>24,12%</t>
+  </si>
+  <si>
+    <t>17,57%</t>
+  </si>
+  <si>
+    <t>30,1%</t>
+  </si>
+  <si>
+    <t>16,19%</t>
+  </si>
+  <si>
+    <t>23,48%</t>
+  </si>
+  <si>
+    <t>64,1%</t>
+  </si>
+  <si>
+    <t>58,51%</t>
+  </si>
+  <si>
+    <t>70,08%</t>
+  </si>
+  <si>
+    <t>51,26%</t>
+  </si>
+  <si>
+    <t>44,21%</t>
+  </si>
+  <si>
+    <t>58,97%</t>
+  </si>
+  <si>
+    <t>58,95%</t>
+  </si>
+  <si>
+    <t>54,47%</t>
+  </si>
+  <si>
+    <t>63,52%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>6,71%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>15,96%</t>
+  </si>
+  <si>
+    <t>12,47%</t>
+  </si>
+  <si>
+    <t>19,99%</t>
+  </si>
+  <si>
+    <t>16,64%</t>
+  </si>
+  <si>
+    <t>12,41%</t>
+  </si>
+  <si>
+    <t>21,57%</t>
+  </si>
+  <si>
+    <t>16,24%</t>
+  </si>
+  <si>
+    <t>13,69%</t>
+  </si>
+  <si>
+    <t>19,46%</t>
+  </si>
+  <si>
+    <t>26,8%</t>
+  </si>
+  <si>
+    <t>22,51%</t>
+  </si>
+  <si>
+    <t>31,49%</t>
+  </si>
+  <si>
+    <t>25,38%</t>
+  </si>
+  <si>
+    <t>20,84%</t>
+  </si>
+  <si>
+    <t>30,7%</t>
+  </si>
+  <si>
+    <t>26,21%</t>
+  </si>
+  <si>
+    <t>23,25%</t>
+  </si>
+  <si>
+    <t>29,71%</t>
+  </si>
+  <si>
+    <t>51,47%</t>
+  </si>
+  <si>
+    <t>46,32%</t>
+  </si>
+  <si>
+    <t>56,4%</t>
+  </si>
+  <si>
+    <t>52,86%</t>
+  </si>
+  <si>
+    <t>58,8%</t>
+  </si>
+  <si>
+    <t>52,05%</t>
+  </si>
+  <si>
+    <t>48,18%</t>
+  </si>
+  <si>
+    <t>55,61%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>4,67%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>5,9%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>4,76%</t>
+  </si>
+  <si>
+    <t>13,7%</t>
+  </si>
+  <si>
+    <t>11,9%</t>
+  </si>
+  <si>
+    <t>15,87%</t>
+  </si>
+  <si>
+    <t>16,37%</t>
+  </si>
+  <si>
+    <t>14,04%</t>
+  </si>
+  <si>
+    <t>19,27%</t>
+  </si>
+  <si>
+    <t>14,76%</t>
+  </si>
+  <si>
+    <t>13,39%</t>
+  </si>
+  <si>
+    <t>16,38%</t>
+  </si>
+  <si>
+    <t>22,74%</t>
+  </si>
+  <si>
+    <t>20,36%</t>
+  </si>
+  <si>
+    <t>25,32%</t>
+  </si>
+  <si>
+    <t>28,33%</t>
+  </si>
+  <si>
+    <t>23,78%</t>
+  </si>
+  <si>
+    <t>22,07%</t>
+  </si>
+  <si>
+    <t>25,55%</t>
+  </si>
+  <si>
+    <t>58,41%</t>
+  </si>
+  <si>
+    <t>55,7%</t>
+  </si>
+  <si>
+    <t>61,19%</t>
+  </si>
+  <si>
+    <t>52,18%</t>
+  </si>
+  <si>
+    <t>48,6%</t>
+  </si>
+  <si>
+    <t>55,32%</t>
+  </si>
+  <si>
+    <t>55,92%</t>
+  </si>
+  <si>
+    <t>53,84%</t>
+  </si>
+  <si>
+    <t>58,01%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si se sienten comprometidos con su profesión en 2016 (Tasa respuesta: 35,56%)</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>15,03%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>16,65%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>8,75%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>12,94%</t>
+  </si>
+  <si>
+    <t>6,17%</t>
+  </si>
+  <si>
+    <t>18,52%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>10,07%</t>
+  </si>
+  <si>
+    <t>13,6%</t>
+  </si>
+  <si>
+    <t>4,82%</t>
+  </si>
+  <si>
+    <t>26,11%</t>
+  </si>
+  <si>
+    <t>24,91%</t>
+  </si>
+  <si>
+    <t>12,22%</t>
+  </si>
+  <si>
+    <t>43,34%</t>
+  </si>
+  <si>
+    <t>18,18%</t>
+  </si>
+  <si>
+    <t>10,25%</t>
+  </si>
+  <si>
+    <t>28,35%</t>
+  </si>
+  <si>
+    <t>33,8%</t>
+  </si>
+  <si>
+    <t>21,46%</t>
+  </si>
+  <si>
+    <t>49,43%</t>
+  </si>
+  <si>
+    <t>29,7%</t>
+  </si>
+  <si>
+    <t>15,0%</t>
+  </si>
+  <si>
+    <t>47,0%</t>
+  </si>
+  <si>
+    <t>32,14%</t>
+  </si>
+  <si>
+    <t>21,82%</t>
+  </si>
+  <si>
+    <t>42,2%</t>
+  </si>
+  <si>
+    <t>47,96%</t>
+  </si>
+  <si>
+    <t>32,29%</t>
+  </si>
+  <si>
+    <t>61,95%</t>
+  </si>
+  <si>
+    <t>35,98%</t>
+  </si>
+  <si>
+    <t>20,76%</t>
+  </si>
+  <si>
+    <t>56,35%</t>
+  </si>
+  <si>
+    <t>43,12%</t>
+  </si>
+  <si>
+    <t>32,42%</t>
+  </si>
+  <si>
+    <t>54,24%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>6,05%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>7,31%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>5,25%</t>
+  </si>
+  <si>
+    <t>8,7%</t>
+  </si>
+  <si>
+    <t>5,2%</t>
+  </si>
+  <si>
+    <t>13,1%</t>
+  </si>
+  <si>
+    <t>7,26%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>12,05%</t>
+  </si>
+  <si>
+    <t>8,11%</t>
+  </si>
+  <si>
+    <t>5,83%</t>
+  </si>
+  <si>
+    <t>11,54%</t>
+  </si>
+  <si>
+    <t>11,98%</t>
+  </si>
+  <si>
+    <t>22,99%</t>
+  </si>
+  <si>
+    <t>17,79%</t>
+  </si>
+  <si>
+    <t>12,18%</t>
+  </si>
+  <si>
+    <t>25,15%</t>
+  </si>
+  <si>
+    <t>13,09%</t>
+  </si>
+  <si>
+    <t>21,4%</t>
+  </si>
+  <si>
+    <t>30,31%</t>
+  </si>
+  <si>
+    <t>37,41%</t>
+  </si>
+  <si>
+    <t>35,65%</t>
+  </si>
+  <si>
+    <t>27,99%</t>
+  </si>
+  <si>
+    <t>44,05%</t>
+  </si>
+  <si>
+    <t>32,49%</t>
+  </si>
+  <si>
+    <t>27,75%</t>
+  </si>
+  <si>
+    <t>37,76%</t>
+  </si>
+  <si>
+    <t>41,56%</t>
+  </si>
+  <si>
+    <t>35,17%</t>
+  </si>
+  <si>
+    <t>48,82%</t>
+  </si>
+  <si>
+    <t>36,85%</t>
+  </si>
+  <si>
+    <t>28,89%</t>
+  </si>
+  <si>
+    <t>45,78%</t>
+  </si>
+  <si>
+    <t>39,64%</t>
+  </si>
+  <si>
+    <t>33,84%</t>
+  </si>
+  <si>
+    <t>44,69%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>5,52%</t>
+  </si>
+  <si>
+    <t>7,2%</t>
+  </si>
+  <si>
+    <t>10,66%</t>
+  </si>
+  <si>
+    <t>4,92%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>6,77%</t>
+  </si>
+  <si>
+    <t>19,52%</t>
+  </si>
+  <si>
+    <t>16,01%</t>
+  </si>
+  <si>
+    <t>23,69%</t>
+  </si>
+  <si>
+    <t>16,6%</t>
+  </si>
+  <si>
+    <t>12,35%</t>
+  </si>
+  <si>
+    <t>21,87%</t>
+  </si>
+  <si>
+    <t>18,35%</t>
+  </si>
+  <si>
+    <t>15,51%</t>
+  </si>
+  <si>
+    <t>21,39%</t>
+  </si>
+  <si>
+    <t>27,54%</t>
+  </si>
+  <si>
+    <t>22,94%</t>
+  </si>
+  <si>
+    <t>31,61%</t>
+  </si>
+  <si>
+    <t>29,42%</t>
+  </si>
+  <si>
+    <t>24,68%</t>
+  </si>
+  <si>
+    <t>35,09%</t>
+  </si>
+  <si>
+    <t>28,29%</t>
+  </si>
+  <si>
+    <t>24,94%</t>
+  </si>
+  <si>
+    <t>31,67%</t>
+  </si>
+  <si>
+    <t>47,78%</t>
+  </si>
+  <si>
+    <t>43,13%</t>
+  </si>
+  <si>
+    <t>52,52%</t>
+  </si>
+  <si>
+    <t>44,65%</t>
+  </si>
+  <si>
+    <t>38,45%</t>
+  </si>
+  <si>
+    <t>50,43%</t>
+  </si>
+  <si>
+    <t>46,54%</t>
+  </si>
+  <si>
+    <t>42,63%</t>
+  </si>
+  <si>
+    <t>50,54%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>6,53%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>8,41%</t>
+  </si>
+  <si>
+    <t>5,59%</t>
+  </si>
+  <si>
+    <t>12,08%</t>
+  </si>
+  <si>
+    <t>10,33%</t>
+  </si>
+  <si>
+    <t>7,15%</t>
+  </si>
+  <si>
+    <t>14,86%</t>
+  </si>
+  <si>
+    <t>9,23%</t>
+  </si>
+  <si>
     <t>7,04%</t>
   </si>
   <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>8,27%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>Solo alguna vez</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>21,71%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
+    <t>12,23%</t>
+  </si>
+  <si>
+    <t>31,06%</t>
+  </si>
+  <si>
+    <t>36,57%</t>
+  </si>
+  <si>
+    <t>24,5%</t>
+  </si>
+  <si>
+    <t>20,04%</t>
+  </si>
+  <si>
+    <t>30,71%</t>
+  </si>
+  <si>
+    <t>28,27%</t>
+  </si>
+  <si>
+    <t>24,58%</t>
+  </si>
+  <si>
+    <t>32,27%</t>
+  </si>
+  <si>
+    <t>22,73%</t>
+  </si>
+  <si>
+    <t>18,36%</t>
+  </si>
+  <si>
+    <t>27,2%</t>
+  </si>
+  <si>
+    <t>27,81%</t>
+  </si>
+  <si>
+    <t>22,55%</t>
+  </si>
+  <si>
+    <t>33,14%</t>
+  </si>
+  <si>
+    <t>24,9%</t>
+  </si>
+  <si>
+    <t>21,1%</t>
+  </si>
+  <si>
+    <t>28,61%</t>
+  </si>
+  <si>
+    <t>33,9%</t>
+  </si>
+  <si>
+    <t>29,04%</t>
+  </si>
+  <si>
+    <t>39,34%</t>
+  </si>
+  <si>
+    <t>34,9%</t>
+  </si>
+  <si>
+    <t>29,13%</t>
+  </si>
+  <si>
+    <t>40,7%</t>
+  </si>
+  <si>
+    <t>34,33%</t>
+  </si>
+  <si>
+    <t>38,54%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>5,65%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>5,19%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>7,17%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>5,13%</t>
+  </si>
+  <si>
+    <t>13,26%</t>
+  </si>
+  <si>
+    <t>9,73%</t>
+  </si>
+  <si>
+    <t>16,9%</t>
+  </si>
+  <si>
+    <t>12,62%</t>
+  </si>
+  <si>
+    <t>9,37%</t>
+  </si>
+  <si>
+    <t>16,49%</t>
+  </si>
+  <si>
+    <t>12,98%</t>
+  </si>
+  <si>
+    <t>10,7%</t>
+  </si>
+  <si>
+    <t>15,45%</t>
+  </si>
+  <si>
+    <t>26,41%</t>
+  </si>
+  <si>
+    <t>22,45%</t>
+  </si>
+  <si>
+    <t>31,21%</t>
+  </si>
+  <si>
+    <t>24,43%</t>
+  </si>
+  <si>
+    <t>19,82%</t>
+  </si>
+  <si>
+    <t>29,75%</t>
+  </si>
+  <si>
+    <t>25,52%</t>
+  </si>
+  <si>
+    <t>21,92%</t>
+  </si>
+  <si>
+    <t>28,88%</t>
+  </si>
+  <si>
+    <t>54,72%</t>
+  </si>
+  <si>
+    <t>49,67%</t>
+  </si>
+  <si>
+    <t>59,65%</t>
+  </si>
+  <si>
+    <t>55,16%</t>
+  </si>
+  <si>
+    <t>49,42%</t>
+  </si>
+  <si>
+    <t>60,7%</t>
+  </si>
+  <si>
+    <t>54,92%</t>
+  </si>
+  <si>
+    <t>51,35%</t>
+  </si>
+  <si>
+    <t>58,86%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>5,27%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>6,58%</t>
   </si>
   <si>
     <t>7,14%</t>
   </si>
   <si>
-    <t>Algunas veces</t>
-  </si>
-  <si>
-    <t>7,03%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>16,28%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>19,41%</t>
-  </si>
-  <si>
-    <t>5,99%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>13,55%</t>
-  </si>
-  <si>
-    <t>Muchas veces</t>
-  </si>
-  <si>
-    <t>27,88%</t>
-  </si>
-  <si>
-    <t>17,74%</t>
-  </si>
-  <si>
-    <t>40,87%</t>
-  </si>
-  <si>
-    <t>41,0%</t>
-  </si>
-  <si>
-    <t>21,57%</t>
-  </si>
-  <si>
-    <t>61,97%</t>
-  </si>
-  <si>
-    <t>32,18%</t>
-  </si>
-  <si>
-    <t>22,22%</t>
-  </si>
-  <si>
-    <t>43,52%</t>
-  </si>
-  <si>
-    <t>Siempre</t>
-  </si>
-  <si>
-    <t>63,65%</t>
-  </si>
-  <si>
-    <t>50,44%</t>
-  </si>
-  <si>
-    <t>75,71%</t>
-  </si>
-  <si>
-    <t>50,84%</t>
-  </si>
-  <si>
-    <t>29,86%</t>
-  </si>
-  <si>
-    <t>73,4%</t>
-  </si>
-  <si>
-    <t>59,46%</t>
-  </si>
-  <si>
-    <t>48,54%</t>
-  </si>
-  <si>
-    <t>70,82%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>5,64%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
+    <t>5,73%</t>
+  </si>
+  <si>
+    <t>8,89%</t>
   </si>
   <si>
     <t>6,06%</t>
   </si>
   <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>8,78%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>5,39%</t>
-  </si>
-  <si>
-    <t>11,14%</t>
-  </si>
-  <si>
-    <t>7,24%</t>
-  </si>
-  <si>
-    <t>15,67%</t>
-  </si>
-  <si>
-    <t>14,67%</t>
-  </si>
-  <si>
-    <t>9,44%</t>
-  </si>
-  <si>
-    <t>21,77%</t>
-  </si>
-  <si>
-    <t>12,5%</t>
-  </si>
-  <si>
-    <t>9,17%</t>
-  </si>
-  <si>
-    <t>25,2%</t>
-  </si>
-  <si>
-    <t>19,6%</t>
-  </si>
-  <si>
-    <t>31,64%</t>
-  </si>
-  <si>
-    <t>27,15%</t>
-  </si>
-  <si>
-    <t>19,59%</t>
-  </si>
-  <si>
-    <t>34,81%</t>
-  </si>
-  <si>
-    <t>25,95%</t>
-  </si>
-  <si>
-    <t>21,45%</t>
-  </si>
-  <si>
-    <t>31,48%</t>
-  </si>
-  <si>
-    <t>59,05%</t>
-  </si>
-  <si>
-    <t>51,91%</t>
-  </si>
-  <si>
-    <t>66,23%</t>
-  </si>
-  <si>
-    <t>52,94%</t>
-  </si>
-  <si>
-    <t>44,46%</t>
-  </si>
-  <si>
-    <t>61,5%</t>
-  </si>
-  <si>
-    <t>56,7%</t>
-  </si>
-  <si>
-    <t>51,22%</t>
-  </si>
-  <si>
-    <t>62,01%</t>
-  </si>
-  <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>7,15%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>4,75%</t>
-  </si>
-  <si>
-    <t>14,28%</t>
-  </si>
-  <si>
-    <t>10,92%</t>
-  </si>
-  <si>
-    <t>18,56%</t>
-  </si>
-  <si>
-    <t>19,37%</t>
-  </si>
-  <si>
-    <t>14,89%</t>
-  </si>
-  <si>
-    <t>25,14%</t>
-  </si>
-  <si>
-    <t>16,3%</t>
-  </si>
-  <si>
-    <t>13,67%</t>
-  </si>
-  <si>
-    <t>19,49%</t>
-  </si>
-  <si>
-    <t>21,51%</t>
+    <t>5,17%</t>
+  </si>
+  <si>
+    <t>20,12%</t>
+  </si>
+  <si>
+    <t>18,12%</t>
+  </si>
+  <si>
+    <t>22,49%</t>
+  </si>
+  <si>
+    <t>17,81%</t>
+  </si>
+  <si>
+    <t>20,3%</t>
+  </si>
+  <si>
+    <t>19,15%</t>
   </si>
   <si>
     <t>17,49%</t>
   </si>
   <si>
-    <t>26,27%</t>
-  </si>
-  <si>
-    <t>23,83%</t>
-  </si>
-  <si>
-    <t>18,23%</t>
-  </si>
-  <si>
-    <t>29,1%</t>
-  </si>
-  <si>
-    <t>22,43%</t>
-  </si>
-  <si>
-    <t>19,01%</t>
-  </si>
-  <si>
-    <t>25,77%</t>
-  </si>
-  <si>
-    <t>60,06%</t>
-  </si>
-  <si>
-    <t>54,62%</t>
-  </si>
-  <si>
-    <t>64,67%</t>
-  </si>
-  <si>
-    <t>45,92%</t>
-  </si>
-  <si>
-    <t>58,19%</t>
-  </si>
-  <si>
-    <t>56,83%</t>
-  </si>
-  <si>
-    <t>52,72%</t>
-  </si>
-  <si>
-    <t>60,58%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>5,33%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>9,12%</t>
-  </si>
-  <si>
-    <t>7,72%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>13,07%</t>
-  </si>
-  <si>
-    <t>6,27%</t>
-  </si>
-  <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>8,88%</t>
-  </si>
-  <si>
-    <t>12,8%</t>
-  </si>
-  <si>
-    <t>9,3%</t>
-  </si>
-  <si>
-    <t>17,32%</t>
-  </si>
-  <si>
-    <t>14,74%</t>
-  </si>
-  <si>
-    <t>9,93%</t>
-  </si>
-  <si>
-    <t>20,9%</t>
-  </si>
-  <si>
-    <t>13,57%</t>
-  </si>
-  <si>
-    <t>10,69%</t>
-  </si>
-  <si>
-    <t>17,08%</t>
-  </si>
-  <si>
-    <t>16,51%</t>
-  </si>
-  <si>
-    <t>12,31%</t>
-  </si>
-  <si>
-    <t>21,21%</t>
-  </si>
-  <si>
-    <t>24,12%</t>
-  </si>
-  <si>
-    <t>18,48%</t>
-  </si>
-  <si>
-    <t>31,35%</t>
-  </si>
-  <si>
-    <t>19,56%</t>
-  </si>
-  <si>
-    <t>16,25%</t>
-  </si>
-  <si>
-    <t>23,58%</t>
-  </si>
-  <si>
-    <t>64,1%</t>
-  </si>
-  <si>
-    <t>57,99%</t>
-  </si>
-  <si>
-    <t>69,75%</t>
-  </si>
-  <si>
-    <t>51,26%</t>
-  </si>
-  <si>
-    <t>44,06%</t>
-  </si>
-  <si>
-    <t>58,68%</t>
-  </si>
-  <si>
-    <t>58,95%</t>
-  </si>
-  <si>
-    <t>53,87%</t>
-  </si>
-  <si>
-    <t>63,18%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>6,55%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>4,93%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>5,25%</t>
-  </si>
-  <si>
-    <t>15,96%</t>
-  </si>
-  <si>
-    <t>12,21%</t>
-  </si>
-  <si>
-    <t>19,91%</t>
-  </si>
-  <si>
-    <t>16,64%</t>
-  </si>
-  <si>
-    <t>12,79%</t>
-  </si>
-  <si>
-    <t>22,02%</t>
-  </si>
-  <si>
-    <t>16,24%</t>
-  </si>
-  <si>
-    <t>13,38%</t>
-  </si>
-  <si>
-    <t>19,17%</t>
-  </si>
-  <si>
-    <t>26,8%</t>
-  </si>
-  <si>
-    <t>31,08%</t>
-  </si>
-  <si>
-    <t>25,38%</t>
-  </si>
-  <si>
-    <t>20,45%</t>
-  </si>
-  <si>
-    <t>30,21%</t>
-  </si>
-  <si>
-    <t>26,21%</t>
-  </si>
-  <si>
-    <t>22,77%</t>
-  </si>
-  <si>
-    <t>29,7%</t>
-  </si>
-  <si>
-    <t>51,47%</t>
-  </si>
-  <si>
-    <t>46,27%</t>
-  </si>
-  <si>
-    <t>56,68%</t>
-  </si>
-  <si>
-    <t>52,86%</t>
-  </si>
-  <si>
-    <t>46,85%</t>
-  </si>
-  <si>
-    <t>58,55%</t>
-  </si>
-  <si>
-    <t>52,05%</t>
-  </si>
-  <si>
-    <t>48,18%</t>
-  </si>
-  <si>
-    <t>56,24%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>5,77%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>13,7%</t>
-  </si>
-  <si>
-    <t>11,86%</t>
-  </si>
-  <si>
-    <t>15,73%</t>
-  </si>
-  <si>
-    <t>16,37%</t>
-  </si>
-  <si>
-    <t>13,81%</t>
-  </si>
-  <si>
-    <t>18,91%</t>
-  </si>
-  <si>
-    <t>14,76%</t>
-  </si>
-  <si>
-    <t>13,44%</t>
-  </si>
-  <si>
-    <t>22,74%</t>
-  </si>
-  <si>
-    <t>25,18%</t>
-  </si>
-  <si>
-    <t>25,32%</t>
-  </si>
-  <si>
-    <t>22,29%</t>
-  </si>
-  <si>
-    <t>28,02%</t>
-  </si>
-  <si>
-    <t>23,78%</t>
-  </si>
-  <si>
-    <t>25,6%</t>
-  </si>
-  <si>
-    <t>58,41%</t>
-  </si>
-  <si>
-    <t>55,91%</t>
-  </si>
-  <si>
-    <t>61,07%</t>
-  </si>
-  <si>
-    <t>52,18%</t>
-  </si>
-  <si>
-    <t>49,18%</t>
-  </si>
-  <si>
-    <t>55,89%</t>
-  </si>
-  <si>
-    <t>55,92%</t>
-  </si>
-  <si>
-    <t>53,66%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si se sienten comprometidos con su profesión en 2016 (Tasa respuesta: 35,56%)</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>13,9%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>16,08%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>8,45%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>11,53%</t>
-  </si>
-  <si>
-    <t>6,17%</t>
-  </si>
-  <si>
-    <t>19,52%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>9,97%</t>
-  </si>
-  <si>
-    <t>13,6%</t>
-  </si>
-  <si>
-    <t>6,29%</t>
-  </si>
-  <si>
-    <t>24,94%</t>
-  </si>
-  <si>
-    <t>24,91%</t>
-  </si>
-  <si>
-    <t>11,98%</t>
-  </si>
-  <si>
-    <t>41,76%</t>
-  </si>
-  <si>
-    <t>18,18%</t>
-  </si>
-  <si>
-    <t>11,25%</t>
-  </si>
-  <si>
-    <t>28,57%</t>
-  </si>
-  <si>
-    <t>33,8%</t>
-  </si>
-  <si>
-    <t>20,57%</t>
-  </si>
-  <si>
-    <t>48,73%</t>
-  </si>
-  <si>
-    <t>14,81%</t>
-  </si>
-  <si>
-    <t>49,42%</t>
-  </si>
-  <si>
-    <t>32,14%</t>
-  </si>
-  <si>
-    <t>22,56%</t>
-  </si>
-  <si>
-    <t>42,91%</t>
-  </si>
-  <si>
-    <t>47,96%</t>
-  </si>
-  <si>
-    <t>33,01%</t>
-  </si>
-  <si>
-    <t>63,01%</t>
-  </si>
-  <si>
-    <t>35,98%</t>
-  </si>
-  <si>
-    <t>19,66%</t>
-  </si>
-  <si>
-    <t>55,24%</t>
-  </si>
-  <si>
-    <t>43,12%</t>
-  </si>
-  <si>
-    <t>31,71%</t>
-  </si>
-  <si>
-    <t>54,03%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>5,74%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>6,66%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>5,15%</t>
-  </si>
-  <si>
-    <t>8,7%</t>
-  </si>
-  <si>
-    <t>13,34%</t>
-  </si>
-  <si>
-    <t>7,26%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>12,84%</t>
-  </si>
-  <si>
-    <t>8,11%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>11,45%</t>
-  </si>
-  <si>
-    <t>16,66%</t>
-  </si>
-  <si>
-    <t>11,79%</t>
-  </si>
-  <si>
-    <t>22,67%</t>
-  </si>
-  <si>
-    <t>17,79%</t>
-  </si>
-  <si>
-    <t>12,51%</t>
-  </si>
-  <si>
-    <t>17,12%</t>
-  </si>
-  <si>
-    <t>13,45%</t>
-  </si>
-  <si>
-    <t>21,22%</t>
-  </si>
-  <si>
-    <t>30,31%</t>
-  </si>
-  <si>
-    <t>24,27%</t>
-  </si>
-  <si>
-    <t>37,86%</t>
-  </si>
-  <si>
-    <t>35,65%</t>
-  </si>
-  <si>
-    <t>27,67%</t>
-  </si>
-  <si>
-    <t>43,69%</t>
-  </si>
-  <si>
-    <t>32,49%</t>
-  </si>
-  <si>
-    <t>27,31%</t>
-  </si>
-  <si>
-    <t>37,92%</t>
-  </si>
-  <si>
-    <t>41,56%</t>
-  </si>
-  <si>
-    <t>34,72%</t>
-  </si>
-  <si>
-    <t>48,97%</t>
-  </si>
-  <si>
-    <t>36,85%</t>
-  </si>
-  <si>
-    <t>28,31%</t>
-  </si>
-  <si>
-    <t>44,47%</t>
-  </si>
-  <si>
-    <t>39,64%</t>
-  </si>
-  <si>
-    <t>34,01%</t>
-  </si>
-  <si>
-    <t>44,72%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>4,92%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>5,54%</t>
-  </si>
-  <si>
-    <t>7,2%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>10,56%</t>
-  </si>
-  <si>
-    <t>6,79%</t>
-  </si>
-  <si>
-    <t>15,78%</t>
-  </si>
-  <si>
-    <t>23,65%</t>
-  </si>
-  <si>
-    <t>16,6%</t>
-  </si>
-  <si>
-    <t>12,53%</t>
-  </si>
-  <si>
-    <t>21,05%</t>
-  </si>
-  <si>
-    <t>18,35%</t>
-  </si>
-  <si>
-    <t>15,36%</t>
-  </si>
-  <si>
-    <t>21,31%</t>
-  </si>
-  <si>
-    <t>27,54%</t>
-  </si>
-  <si>
-    <t>23,22%</t>
-  </si>
-  <si>
-    <t>32,25%</t>
-  </si>
-  <si>
-    <t>29,42%</t>
-  </si>
-  <si>
-    <t>24,23%</t>
-  </si>
-  <si>
-    <t>35,53%</t>
-  </si>
-  <si>
-    <t>28,29%</t>
-  </si>
-  <si>
-    <t>24,82%</t>
-  </si>
-  <si>
-    <t>31,94%</t>
-  </si>
-  <si>
-    <t>47,78%</t>
-  </si>
-  <si>
-    <t>42,72%</t>
-  </si>
-  <si>
-    <t>53,26%</t>
-  </si>
-  <si>
-    <t>44,65%</t>
-  </si>
-  <si>
-    <t>38,68%</t>
-  </si>
-  <si>
-    <t>50,61%</t>
-  </si>
-  <si>
-    <t>46,54%</t>
-  </si>
-  <si>
-    <t>42,62%</t>
-  </si>
-  <si>
-    <t>50,21%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>6,76%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>4,86%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>4,99%</t>
-  </si>
-  <si>
-    <t>8,41%</t>
-  </si>
-  <si>
-    <t>5,63%</t>
-  </si>
-  <si>
-    <t>11,82%</t>
-  </si>
-  <si>
-    <t>10,33%</t>
-  </si>
-  <si>
-    <t>7,05%</t>
-  </si>
-  <si>
-    <t>13,97%</t>
-  </si>
-  <si>
-    <t>9,23%</t>
-  </si>
-  <si>
-    <t>7,01%</t>
-  </si>
-  <si>
-    <t>12,05%</t>
-  </si>
-  <si>
-    <t>31,06%</t>
-  </si>
-  <si>
-    <t>26,41%</t>
-  </si>
-  <si>
-    <t>36,35%</t>
-  </si>
-  <si>
-    <t>24,5%</t>
-  </si>
-  <si>
-    <t>19,69%</t>
-  </si>
-  <si>
-    <t>29,81%</t>
-  </si>
-  <si>
-    <t>28,27%</t>
-  </si>
-  <si>
-    <t>24,58%</t>
-  </si>
-  <si>
-    <t>22,73%</t>
-  </si>
-  <si>
-    <t>18,43%</t>
-  </si>
-  <si>
-    <t>27,62%</t>
-  </si>
-  <si>
-    <t>27,81%</t>
-  </si>
-  <si>
-    <t>22,32%</t>
-  </si>
-  <si>
-    <t>33,09%</t>
-  </si>
-  <si>
-    <t>24,9%</t>
-  </si>
-  <si>
-    <t>21,5%</t>
-  </si>
-  <si>
-    <t>28,7%</t>
-  </si>
-  <si>
-    <t>33,9%</t>
-  </si>
-  <si>
-    <t>28,56%</t>
-  </si>
-  <si>
-    <t>39,14%</t>
-  </si>
-  <si>
-    <t>34,9%</t>
-  </si>
-  <si>
-    <t>29,29%</t>
-  </si>
-  <si>
-    <t>34,33%</t>
-  </si>
-  <si>
-    <t>30,65%</t>
-  </si>
-  <si>
-    <t>38,37%</t>
-  </si>
-  <si>
-    <t>4,76%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>5,82%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>5,21%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>7,21%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>5,36%</t>
-  </si>
-  <si>
-    <t>13,26%</t>
-  </si>
-  <si>
-    <t>10,32%</t>
-  </si>
-  <si>
-    <t>17,09%</t>
-  </si>
-  <si>
-    <t>12,62%</t>
-  </si>
-  <si>
-    <t>9,34%</t>
-  </si>
-  <si>
-    <t>16,52%</t>
-  </si>
-  <si>
-    <t>12,98%</t>
-  </si>
-  <si>
-    <t>10,73%</t>
-  </si>
-  <si>
-    <t>15,82%</t>
-  </si>
-  <si>
-    <t>21,86%</t>
-  </si>
-  <si>
-    <t>30,82%</t>
-  </si>
-  <si>
-    <t>24,43%</t>
-  </si>
-  <si>
-    <t>20,14%</t>
-  </si>
-  <si>
-    <t>29,54%</t>
-  </si>
-  <si>
-    <t>25,52%</t>
-  </si>
-  <si>
-    <t>22,16%</t>
-  </si>
-  <si>
-    <t>28,76%</t>
-  </si>
-  <si>
-    <t>54,72%</t>
-  </si>
-  <si>
-    <t>49,49%</t>
-  </si>
-  <si>
-    <t>59,32%</t>
-  </si>
-  <si>
-    <t>55,16%</t>
-  </si>
-  <si>
-    <t>49,66%</t>
-  </si>
-  <si>
-    <t>60,32%</t>
-  </si>
-  <si>
-    <t>54,92%</t>
-  </si>
-  <si>
-    <t>51,01%</t>
-  </si>
-  <si>
-    <t>58,52%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>5,27%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>6,61%</t>
-  </si>
-  <si>
-    <t>5,68%</t>
-  </si>
-  <si>
-    <t>8,85%</t>
-  </si>
-  <si>
-    <t>7,12%</t>
-  </si>
-  <si>
-    <t>20,12%</t>
-  </si>
-  <si>
-    <t>18,09%</t>
-  </si>
-  <si>
-    <t>22,57%</t>
-  </si>
-  <si>
-    <t>17,81%</t>
-  </si>
-  <si>
-    <t>15,62%</t>
-  </si>
-  <si>
-    <t>20,46%</t>
-  </si>
-  <si>
-    <t>19,15%</t>
-  </si>
-  <si>
-    <t>17,43%</t>
-  </si>
-  <si>
-    <t>20,75%</t>
+    <t>20,93%</t>
   </si>
   <si>
     <t>26,57%</t>
   </si>
   <si>
-    <t>29,03%</t>
-  </si>
-  <si>
-    <t>25,45%</t>
-  </si>
-  <si>
-    <t>30,67%</t>
+    <t>24,36%</t>
+  </si>
+  <si>
+    <t>29,21%</t>
+  </si>
+  <si>
+    <t>25,49%</t>
+  </si>
+  <si>
+    <t>31,18%</t>
   </si>
   <si>
     <t>27,29%</t>
   </si>
   <si>
-    <t>25,62%</t>
-  </si>
-  <si>
-    <t>29,07%</t>
+    <t>25,41%</t>
+  </si>
+  <si>
+    <t>28,96%</t>
   </si>
   <si>
     <t>45,32%</t>
   </si>
   <si>
-    <t>42,5%</t>
-  </si>
-  <si>
-    <t>47,83%</t>
+    <t>42,71%</t>
+  </si>
+  <si>
+    <t>48,29%</t>
   </si>
   <si>
     <t>44,12%</t>
   </si>
   <si>
-    <t>41,28%</t>
-  </si>
-  <si>
-    <t>47,12%</t>
+    <t>41,02%</t>
+  </si>
+  <si>
+    <t>47,29%</t>
   </si>
   <si>
     <t>44,82%</t>
   </si>
   <si>
-    <t>42,76%</t>
-  </si>
-  <si>
-    <t>46,71%</t>
+    <t>42,73%</t>
+  </si>
+  <si>
+    <t>46,77%</t>
   </si>
 </sst>
 </file>
@@ -1984,7 +1996,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A82E1E73-1655-495E-9449-ECA5ED568A83}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{696D89A1-AD04-479A-A45E-799181466622}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2485,10 +2497,10 @@
         <v>66</v>
       </c>
       <c r="K11" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>67</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>68</v>
       </c>
       <c r="M11" s="7">
         <v>8</v>
@@ -2497,13 +2509,13 @@
         <v>10033</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="P11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>70</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2518,13 +2530,13 @@
         <v>24193</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>73</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>74</v>
       </c>
       <c r="H12" s="7">
         <v>20</v>
@@ -2533,13 +2545,13 @@
         <v>19970</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>77</v>
       </c>
       <c r="M12" s="7">
         <v>43</v>
@@ -2548,13 +2560,13 @@
         <v>44162</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2602,10 +2614,10 @@
         <v>86</v>
       </c>
       <c r="P13" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>87</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2620,13 +2632,13 @@
         <v>128259</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>90</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="H14" s="7">
         <v>66</v>
@@ -2635,13 +2647,13 @@
         <v>72049</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>94</v>
       </c>
       <c r="M14" s="7">
         <v>189</v>
@@ -2650,13 +2662,13 @@
         <v>200308</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2712,7 +2724,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2724,13 +2736,13 @@
         <v>6073</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>100</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>101</v>
       </c>
       <c r="H16" s="7">
         <v>3</v>
@@ -2739,13 +2751,13 @@
         <v>3374</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>103</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>104</v>
       </c>
       <c r="M16" s="7">
         <v>9</v>
@@ -2754,13 +2766,13 @@
         <v>9447</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>106</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2775,10 +2787,10 @@
         <v>10947</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>70</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>109</v>
@@ -2943,13 +2955,13 @@
         <v>140441</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>90</v>
+        <v>136</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="M20" s="7">
         <v>352</v>
@@ -2958,13 +2970,13 @@
         <v>387116</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3020,7 +3032,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -3032,13 +3044,13 @@
         <v>4117</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="H22" s="7">
         <v>4</v>
@@ -3047,13 +3059,13 @@
         <v>4614</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="M22" s="7">
         <v>8</v>
@@ -3062,13 +3074,13 @@
         <v>8731</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3083,13 +3095,13 @@
         <v>16940</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="H23" s="7">
         <v>13</v>
@@ -3098,13 +3110,13 @@
         <v>16478</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="M23" s="7">
         <v>26</v>
@@ -3113,13 +3125,13 @@
         <v>33417</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3134,13 +3146,13 @@
         <v>40870</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="H24" s="7">
         <v>27</v>
@@ -3149,13 +3161,13 @@
         <v>31461</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="M24" s="7">
         <v>65</v>
@@ -3164,13 +3176,13 @@
         <v>72331</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3185,13 +3197,13 @@
         <v>52743</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="H25" s="7">
         <v>46</v>
@@ -3200,13 +3212,13 @@
         <v>51494</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="M25" s="7">
         <v>95</v>
@@ -3215,7 +3227,7 @@
         <v>104237</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>175</v>
+        <v>81</v>
       </c>
       <c r="P25" s="7" t="s">
         <v>176</v>
@@ -3358,7 +3370,7 @@
         <v>191</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>70</v>
+        <v>101</v>
       </c>
       <c r="L28" s="7" t="s">
         <v>192</v>
@@ -3394,10 +3406,10 @@
         <v>196</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>63</v>
+        <v>197</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="H29" s="7">
         <v>8</v>
@@ -3406,13 +3418,13 @@
         <v>7766</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>102</v>
+        <v>200</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="M29" s="7">
         <v>25</v>
@@ -3421,13 +3433,13 @@
         <v>25242</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>63</v>
+        <v>203</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3442,13 +3454,13 @@
         <v>66824</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="H30" s="7">
         <v>46</v>
@@ -3457,13 +3469,13 @@
         <v>49816</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="M30" s="7">
         <v>109</v>
@@ -3472,13 +3484,13 @@
         <v>116640</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -3493,13 +3505,13 @@
         <v>112216</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>130</v>
+        <v>215</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="H31" s="7">
         <v>75</v>
@@ -3508,13 +3520,13 @@
         <v>75994</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="M31" s="7">
         <v>187</v>
@@ -3523,13 +3535,13 @@
         <v>188210</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -3544,13 +3556,13 @@
         <v>215488</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="H32" s="7">
         <v>149</v>
@@ -3559,28 +3571,28 @@
         <v>158298</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>223</v>
+        <v>51</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="M32" s="7">
         <v>355</v>
       </c>
       <c r="N32" s="7">
-        <v>373786</v>
+        <v>373787</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3622,7 +3634,7 @@
         <v>690</v>
       </c>
       <c r="N33" s="7">
-        <v>718142</v>
+        <v>718143</v>
       </c>
       <c r="O33" s="7" t="s">
         <v>53</v>
@@ -3651,10 +3663,10 @@
         <v>58</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="H34" s="7">
         <v>17</v>
@@ -3663,13 +3675,13 @@
         <v>17738</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="M34" s="7">
         <v>39</v>
@@ -3678,13 +3690,13 @@
         <v>40287</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -3699,13 +3711,13 @@
         <v>50441</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>108</v>
+        <v>240</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="H35" s="7">
         <v>34</v>
@@ -3714,13 +3726,13 @@
         <v>40125</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>239</v>
+        <v>145</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="M35" s="7">
         <v>78</v>
@@ -3729,13 +3741,13 @@
         <v>90567</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>242</v>
+        <v>145</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -3750,13 +3762,13 @@
         <v>194189</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="H36" s="7">
         <v>143</v>
@@ -3765,13 +3777,13 @@
         <v>154624</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="M36" s="7">
         <v>326</v>
@@ -3780,13 +3792,13 @@
         <v>348813</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>169</v>
+        <v>254</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -3801,13 +3813,13 @@
         <v>322453</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>214</v>
+        <v>256</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>253</v>
+        <v>80</v>
       </c>
       <c r="H37" s="7">
         <v>225</v>
@@ -3816,13 +3828,13 @@
         <v>239243</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>255</v>
+        <v>215</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="M37" s="7">
         <v>535</v>
@@ -3831,13 +3843,13 @@
         <v>561696</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>41</v>
+        <v>260</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3852,13 +3864,13 @@
         <v>828095</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="H38" s="7">
         <v>453</v>
@@ -3867,13 +3879,13 @@
         <v>493001</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="M38" s="7">
         <v>1226</v>
@@ -3882,13 +3894,13 @@
         <v>1321096</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>179</v>
+        <v>270</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -3944,7 +3956,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
     </row>
   </sheetData>
@@ -3965,7 +3977,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF1EAB46-7A68-4419-AD2B-96E66A30F7AF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99FA6A42-661F-4E13-B6F2-17A5EBF6FCE0}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3982,7 +3994,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4089,13 +4101,13 @@
         <v>1108</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="H4" s="7">
         <v>1</v>
@@ -4104,13 +4116,13 @@
         <v>968</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="M4" s="7">
         <v>2</v>
@@ -4119,13 +4131,13 @@
         <v>2076</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4140,13 +4152,13 @@
         <v>933</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="H5" s="7">
         <v>2</v>
@@ -4155,13 +4167,13 @@
         <v>1843</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="M5" s="7">
         <v>3</v>
@@ -4170,13 +4182,13 @@
         <v>2776</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4191,13 +4203,13 @@
         <v>5988</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="H6" s="7">
         <v>8</v>
@@ -4206,13 +4218,13 @@
         <v>7445</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="M6" s="7">
         <v>14</v>
@@ -4221,13 +4233,13 @@
         <v>13434</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4242,13 +4254,13 @@
         <v>14878</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="H7" s="7">
         <v>10</v>
@@ -4257,13 +4269,13 @@
         <v>8878</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>218</v>
+        <v>298</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="M7" s="7">
         <v>25</v>
@@ -4272,13 +4284,13 @@
         <v>23757</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4293,13 +4305,13 @@
         <v>21113</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="H8" s="7">
         <v>11</v>
@@ -4308,13 +4320,13 @@
         <v>10756</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="M8" s="7">
         <v>31</v>
@@ -4323,13 +4335,13 @@
         <v>31869</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>307</v>
+        <v>312</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4397,13 +4409,13 @@
         <v>5521</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>309</v>
+        <v>314</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="H10" s="7">
         <v>3</v>
@@ -4412,13 +4424,13 @@
         <v>3357</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="M10" s="7">
         <v>8</v>
@@ -4427,13 +4439,13 @@
         <v>8877</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>315</v>
+        <v>200</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4448,13 +4460,13 @@
         <v>17332</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>201</v>
+        <v>322</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="H11" s="7">
         <v>11</v>
@@ -4463,13 +4475,13 @@
         <v>9986</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="M11" s="7">
         <v>28</v>
@@ -4478,13 +4490,13 @@
         <v>27318</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4499,13 +4511,13 @@
         <v>33205</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>325</v>
+        <v>169</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="H12" s="7">
         <v>26</v>
@@ -4514,13 +4526,13 @@
         <v>24457</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>253</v>
+        <v>334</v>
       </c>
       <c r="M12" s="7">
         <v>56</v>
@@ -4529,13 +4541,13 @@
         <v>57662</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>330</v>
+        <v>163</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4550,13 +4562,13 @@
         <v>60389</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>334</v>
+        <v>120</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="H13" s="7">
         <v>51</v>
@@ -4565,13 +4577,13 @@
         <v>49012</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="M13" s="7">
         <v>109</v>
@@ -4580,13 +4592,13 @@
         <v>109401</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4601,13 +4613,13 @@
         <v>82823</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="H14" s="7">
         <v>51</v>
@@ -4616,13 +4628,13 @@
         <v>50667</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="M14" s="7">
         <v>129</v>
@@ -4631,13 +4643,13 @@
         <v>133489</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4693,7 +4705,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4705,13 +4717,13 @@
         <v>7247</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>352</v>
+        <v>189</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="H16" s="7">
         <v>5</v>
@@ -4720,13 +4732,13 @@
         <v>5841</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>356</v>
+        <v>287</v>
       </c>
       <c r="M16" s="7">
         <v>11</v>
@@ -4735,13 +4747,13 @@
         <v>13088</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>113</v>
+        <v>26</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4756,13 +4768,13 @@
         <v>14142</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="H17" s="7">
         <v>19</v>
@@ -4771,10 +4783,10 @@
         <v>19700</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>363</v>
+        <v>242</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>364</v>
@@ -4786,13 +4798,13 @@
         <v>33842</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>356</v>
+        <v>365</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>19</v>
+        <v>366</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4807,13 +4819,13 @@
         <v>80801</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>278</v>
+        <v>368</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="H18" s="7">
         <v>47</v>
@@ -4822,13 +4834,13 @@
         <v>45436</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="M18" s="7">
         <v>120</v>
@@ -4837,13 +4849,13 @@
         <v>126237</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4858,13 +4870,13 @@
         <v>114014</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="H19" s="7">
         <v>79</v>
@@ -4873,13 +4885,13 @@
         <v>80555</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="M19" s="7">
         <v>185</v>
@@ -4888,13 +4900,13 @@
         <v>194569</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4909,13 +4921,13 @@
         <v>197837</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="H20" s="7">
         <v>117</v>
@@ -4924,13 +4936,13 @@
         <v>122240</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="M20" s="7">
         <v>291</v>
@@ -4939,13 +4951,13 @@
         <v>320077</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5001,7 +5013,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -5013,13 +5025,13 @@
         <v>14172</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>55</v>
+        <v>396</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="H22" s="7">
         <v>6</v>
@@ -5028,13 +5040,13 @@
         <v>6637</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>395</v>
+        <v>399</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>396</v>
+        <v>204</v>
       </c>
       <c r="M22" s="7">
         <v>19</v>
@@ -5043,13 +5055,13 @@
         <v>20809</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>354</v>
+        <v>401</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5064,13 +5076,13 @@
         <v>30609</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>401</v>
+        <v>405</v>
       </c>
       <c r="H23" s="7">
         <v>28</v>
@@ -5079,13 +5091,13 @@
         <v>27956</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="M23" s="7">
         <v>54</v>
@@ -5094,13 +5106,13 @@
         <v>58566</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>407</v>
+        <v>411</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5115,13 +5127,13 @@
         <v>113018</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>409</v>
+        <v>220</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="H24" s="7">
         <v>66</v>
@@ -5130,13 +5142,13 @@
         <v>66293</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="M24" s="7">
         <v>165</v>
@@ -5145,13 +5157,13 @@
         <v>179310</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>296</v>
+        <v>419</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5166,13 +5178,13 @@
         <v>82693</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>417</v>
+        <v>421</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>418</v>
+        <v>422</v>
       </c>
       <c r="H25" s="7">
         <v>73</v>
@@ -5181,13 +5193,13 @@
         <v>75242</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>419</v>
+        <v>423</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>421</v>
+        <v>425</v>
       </c>
       <c r="M25" s="7">
         <v>148</v>
@@ -5196,13 +5208,13 @@
         <v>157935</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>422</v>
+        <v>426</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>423</v>
+        <v>427</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5217,13 +5229,13 @@
         <v>123328</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="H26" s="7">
         <v>92</v>
@@ -5232,13 +5244,13 @@
         <v>94430</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>36</v>
+        <v>434</v>
       </c>
       <c r="M26" s="7">
         <v>206</v>
@@ -5247,13 +5259,13 @@
         <v>217758</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>430</v>
+        <v>435</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>431</v>
+        <v>175</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>432</v>
+        <v>436</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5321,13 +5333,13 @@
         <v>10591</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>102</v>
+        <v>437</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>433</v>
+        <v>438</v>
       </c>
       <c r="H28" s="7">
         <v>10</v>
@@ -5336,13 +5348,13 @@
         <v>10702</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>434</v>
+        <v>439</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>435</v>
+        <v>188</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>436</v>
+        <v>440</v>
       </c>
       <c r="M28" s="7">
         <v>20</v>
@@ -5351,13 +5363,13 @@
         <v>21292</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>239</v>
+        <v>441</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>437</v>
+        <v>26</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>438</v>
+        <v>442</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5372,13 +5384,13 @@
         <v>11918</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>439</v>
+        <v>443</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>440</v>
+        <v>98</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>441</v>
+        <v>444</v>
       </c>
       <c r="H29" s="7">
         <v>14</v>
@@ -5387,13 +5399,13 @@
         <v>14611</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>308</v>
+        <v>446</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>443</v>
+        <v>447</v>
       </c>
       <c r="M29" s="7">
         <v>25</v>
@@ -5402,13 +5414,13 @@
         <v>26529</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>394</v>
+        <v>238</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5423,13 +5435,13 @@
         <v>53202</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>447</v>
+        <v>451</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>448</v>
+        <v>452</v>
       </c>
       <c r="H30" s="7">
         <v>40</v>
@@ -5438,13 +5450,13 @@
         <v>41089</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>451</v>
+        <v>455</v>
       </c>
       <c r="M30" s="7">
         <v>92</v>
@@ -5453,13 +5465,13 @@
         <v>94291</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>452</v>
+        <v>456</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>453</v>
+        <v>457</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -5474,13 +5486,13 @@
         <v>105936</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>409</v>
+        <v>459</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>455</v>
+        <v>460</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>456</v>
+        <v>461</v>
       </c>
       <c r="H31" s="7">
         <v>76</v>
@@ -5489,13 +5501,13 @@
         <v>79526</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>457</v>
+        <v>462</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>458</v>
+        <v>463</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>459</v>
+        <v>464</v>
       </c>
       <c r="M31" s="7">
         <v>181</v>
@@ -5504,13 +5516,13 @@
         <v>185462</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>460</v>
+        <v>465</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>461</v>
+        <v>466</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>462</v>
+        <v>467</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -5525,13 +5537,13 @@
         <v>219524</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>463</v>
+        <v>468</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>464</v>
+        <v>469</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>465</v>
+        <v>470</v>
       </c>
       <c r="H32" s="7">
         <v>167</v>
@@ -5540,13 +5552,13 @@
         <v>179546</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>466</v>
+        <v>471</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>467</v>
+        <v>472</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>468</v>
+        <v>473</v>
       </c>
       <c r="M32" s="7">
         <v>382</v>
@@ -5555,13 +5567,13 @@
         <v>399070</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>469</v>
+        <v>474</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>470</v>
+        <v>475</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>471</v>
+        <v>476</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -5629,13 +5641,13 @@
         <v>38639</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>472</v>
+        <v>477</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>473</v>
+        <v>26</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>474</v>
+        <v>478</v>
       </c>
       <c r="H34" s="7">
         <v>25</v>
@@ -5644,13 +5656,13 @@
         <v>27505</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>475</v>
+        <v>106</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>476</v>
+        <v>479</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="M34" s="7">
         <v>60</v>
@@ -5659,13 +5671,13 @@
         <v>66143</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>478</v>
+        <v>481</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>479</v>
+        <v>482</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>480</v>
+        <v>19</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -5680,13 +5692,13 @@
         <v>74934</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="H35" s="7">
         <v>74</v>
@@ -5695,13 +5707,13 @@
         <v>74096</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>23</v>
+        <v>486</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>484</v>
+        <v>487</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>485</v>
+        <v>488</v>
       </c>
       <c r="M35" s="7">
         <v>142</v>
@@ -5710,10 +5722,10 @@
         <v>149030</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>65</v>
+        <v>489</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>316</v>
+        <v>490</v>
       </c>
       <c r="Q35" s="7" t="s">
         <v>486</v>
@@ -5731,13 +5743,13 @@
         <v>286215</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>488</v>
+        <v>492</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>489</v>
+        <v>493</v>
       </c>
       <c r="H36" s="7">
         <v>187</v>
@@ -5746,13 +5758,13 @@
         <v>184719</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>490</v>
+        <v>494</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>491</v>
+        <v>375</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>492</v>
+        <v>495</v>
       </c>
       <c r="M36" s="7">
         <v>447</v>
@@ -5761,13 +5773,13 @@
         <v>470934</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>493</v>
+        <v>496</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>494</v>
+        <v>497</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>495</v>
+        <v>498</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -5782,13 +5794,13 @@
         <v>377909</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>496</v>
+        <v>499</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>378</v>
+        <v>500</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>497</v>
+        <v>501</v>
       </c>
       <c r="H37" s="7">
         <v>289</v>
@@ -5797,13 +5809,13 @@
         <v>293214</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>498</v>
+        <v>502</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>499</v>
+        <v>503</v>
       </c>
       <c r="M37" s="7">
         <v>648</v>
@@ -5812,13 +5824,13 @@
         <v>671123</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>500</v>
+        <v>504</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>501</v>
+        <v>505</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>502</v>
+        <v>506</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -5833,13 +5845,13 @@
         <v>644625</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>503</v>
+        <v>507</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>504</v>
+        <v>508</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>505</v>
+        <v>509</v>
       </c>
       <c r="H38" s="7">
         <v>438</v>
@@ -5848,13 +5860,13 @@
         <v>457638</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>506</v>
+        <v>510</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>507</v>
+        <v>511</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>508</v>
+        <v>512</v>
       </c>
       <c r="M38" s="7">
         <v>1039</v>
@@ -5863,13 +5875,13 @@
         <v>1102263</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>509</v>
+        <v>513</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>510</v>
+        <v>514</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>511</v>
+        <v>515</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -5925,7 +5937,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
     </row>
   </sheetData>
